--- a/prisma/data/data.xlsx
+++ b/prisma/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADA557-62E3-4FC2-9A9A-416017486D89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C221E1A-E0FC-47BD-856D-B4B26A729A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phong" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,21 @@
     <sheet name="NgachLuong" sheetId="7" r:id="rId7"/>
     <sheet name="BacNgachLuong" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3399,190 +3410,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C4F4A0-522F-405F-8756-FBF959ABE64C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
         <v>204</v>
       </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3594,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3399BC39-814D-4AE6-9F36-AC3560A7DE9D}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,9 +3651,9 @@
       <c r="D2">
         <v>1095</v>
       </c>
-      <c r="E2" t="e">
-        <f>VLOOKUP(F2,NgachLuong!B1,0,)</f>
-        <v>#N/A</v>
+      <c r="E2">
+        <f>VLOOKUP(F2,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>179</v>
@@ -3661,6 +3672,10 @@
       <c r="D3">
         <v>1095</v>
       </c>
+      <c r="E3">
+        <f>VLOOKUP(F3,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>1</v>
+      </c>
       <c r="F3" t="s">
         <v>179</v>
       </c>
@@ -3678,6 +3693,10 @@
       <c r="D4">
         <v>1095</v>
       </c>
+      <c r="E4">
+        <f>VLOOKUP(F4,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>1</v>
+      </c>
       <c r="F4" t="s">
         <v>179</v>
       </c>
@@ -3695,6 +3714,10 @@
       <c r="D5">
         <v>1095</v>
       </c>
+      <c r="E5">
+        <f>VLOOKUP(F5,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>2</v>
+      </c>
       <c r="F5" t="s">
         <v>181</v>
       </c>
@@ -3712,6 +3735,10 @@
       <c r="D6">
         <v>1095</v>
       </c>
+      <c r="E6">
+        <f>VLOOKUP(F6,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>2</v>
+      </c>
       <c r="F6" t="s">
         <v>181</v>
       </c>
@@ -3729,6 +3756,10 @@
       <c r="D7">
         <v>1095</v>
       </c>
+      <c r="E7">
+        <f>VLOOKUP(F7,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>2</v>
+      </c>
       <c r="F7" t="s">
         <v>181</v>
       </c>
@@ -3746,6 +3777,10 @@
       <c r="D8">
         <v>1095</v>
       </c>
+      <c r="E8">
+        <f>VLOOKUP(F8,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>3</v>
+      </c>
       <c r="F8" t="s">
         <v>183</v>
       </c>
@@ -3763,6 +3798,10 @@
       <c r="D9">
         <v>1095</v>
       </c>
+      <c r="E9">
+        <f>VLOOKUP(F9,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>3</v>
+      </c>
       <c r="F9" t="s">
         <v>183</v>
       </c>
@@ -3780,6 +3819,10 @@
       <c r="D10">
         <v>1095</v>
       </c>
+      <c r="E10">
+        <f>VLOOKUP(F10,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>3</v>
+      </c>
       <c r="F10" t="s">
         <v>183</v>
       </c>
@@ -3797,6 +3840,10 @@
       <c r="D11">
         <v>1095</v>
       </c>
+      <c r="E11">
+        <f>VLOOKUP(F11,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>4</v>
+      </c>
       <c r="F11" t="s">
         <v>184</v>
       </c>
@@ -3814,6 +3861,10 @@
       <c r="D12">
         <v>1095</v>
       </c>
+      <c r="E12">
+        <f>VLOOKUP(F12,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>4</v>
+      </c>
       <c r="F12" t="s">
         <v>184</v>
       </c>
@@ -3831,6 +3882,10 @@
       <c r="D13">
         <v>1095</v>
       </c>
+      <c r="E13">
+        <f>VLOOKUP(F13,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>4</v>
+      </c>
       <c r="F13" t="s">
         <v>184</v>
       </c>
@@ -3848,6 +3903,10 @@
       <c r="D14">
         <v>1095</v>
       </c>
+      <c r="E14">
+        <f>VLOOKUP(F14,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>5</v>
+      </c>
       <c r="F14" t="s">
         <v>187</v>
       </c>
@@ -3864,6 +3923,10 @@
       </c>
       <c r="D15">
         <v>1095</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(F15,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>187</v>
@@ -3882,6 +3945,10 @@
       <c r="D16">
         <v>1095</v>
       </c>
+      <c r="E16">
+        <f>VLOOKUP(F16,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>5</v>
+      </c>
       <c r="F16" t="s">
         <v>187</v>
       </c>
@@ -3899,6 +3966,10 @@
       <c r="D17">
         <v>1095</v>
       </c>
+      <c r="E17">
+        <f>VLOOKUP(F17,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>5</v>
+      </c>
       <c r="F17" t="s">
         <v>187</v>
       </c>
@@ -3916,6 +3987,10 @@
       <c r="D18">
         <v>1095</v>
       </c>
+      <c r="E18">
+        <f>VLOOKUP(F18,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F18" t="s">
         <v>189</v>
       </c>
@@ -3933,6 +4008,10 @@
       <c r="D19">
         <v>1095</v>
       </c>
+      <c r="E19">
+        <f>VLOOKUP(F19,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F19" t="s">
         <v>189</v>
       </c>
@@ -3950,6 +4029,10 @@
       <c r="D20">
         <v>1095</v>
       </c>
+      <c r="E20">
+        <f>VLOOKUP(F20,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F20" t="s">
         <v>189</v>
       </c>
@@ -3967,6 +4050,10 @@
       <c r="D21">
         <v>1095</v>
       </c>
+      <c r="E21">
+        <f>VLOOKUP(F21,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F21" t="s">
         <v>189</v>
       </c>
@@ -3984,6 +4071,10 @@
       <c r="D22">
         <v>1095</v>
       </c>
+      <c r="E22">
+        <f>VLOOKUP(F22,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F22" t="s">
         <v>189</v>
       </c>
@@ -4001,6 +4092,10 @@
       <c r="D23">
         <v>1095</v>
       </c>
+      <c r="E23">
+        <f>VLOOKUP(F23,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F23" t="s">
         <v>189</v>
       </c>
@@ -4018,6 +4113,10 @@
       <c r="D24">
         <v>1095</v>
       </c>
+      <c r="E24">
+        <f>VLOOKUP(F24,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F24" t="s">
         <v>189</v>
       </c>
@@ -4035,6 +4134,10 @@
       <c r="D25">
         <v>1095</v>
       </c>
+      <c r="E25">
+        <f>VLOOKUP(F25,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>6</v>
+      </c>
       <c r="F25" t="s">
         <v>189</v>
       </c>
@@ -4052,6 +4155,10 @@
       <c r="D26">
         <v>730</v>
       </c>
+      <c r="E26">
+        <f>VLOOKUP(F26,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>7</v>
+      </c>
       <c r="F26" t="s">
         <v>191</v>
       </c>
@@ -4069,6 +4176,10 @@
       <c r="D27">
         <v>730</v>
       </c>
+      <c r="E27">
+        <f>VLOOKUP(F27,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>7</v>
+      </c>
       <c r="F27" t="s">
         <v>191</v>
       </c>
@@ -4086,6 +4197,10 @@
       <c r="D28">
         <v>1095</v>
       </c>
+      <c r="E28">
+        <f>VLOOKUP(F28,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>7</v>
+      </c>
       <c r="F28" t="s">
         <v>191</v>
       </c>
@@ -4103,6 +4218,10 @@
       <c r="D29">
         <v>1095</v>
       </c>
+      <c r="E29">
+        <f>VLOOKUP(F29,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>7</v>
+      </c>
       <c r="F29" t="s">
         <v>191</v>
       </c>
@@ -4120,6 +4239,10 @@
       <c r="D30">
         <v>1095</v>
       </c>
+      <c r="E30">
+        <f>VLOOKUP(F30,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>7</v>
+      </c>
       <c r="F30" t="s">
         <v>191</v>
       </c>
@@ -4137,6 +4260,10 @@
       <c r="D31">
         <v>730</v>
       </c>
+      <c r="E31">
+        <f>VLOOKUP(F31,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>8</v>
+      </c>
       <c r="F31" t="s">
         <v>192</v>
       </c>
@@ -4154,6 +4281,10 @@
       <c r="D32">
         <v>730</v>
       </c>
+      <c r="E32">
+        <f>VLOOKUP(F32,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>8</v>
+      </c>
       <c r="F32" t="s">
         <v>192</v>
       </c>
@@ -4171,6 +4302,10 @@
       <c r="D33">
         <v>1095</v>
       </c>
+      <c r="E33">
+        <f>VLOOKUP(F33,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>8</v>
+      </c>
       <c r="F33" t="s">
         <v>192</v>
       </c>
@@ -4188,6 +4323,10 @@
       <c r="D34">
         <v>1095</v>
       </c>
+      <c r="E34">
+        <f>VLOOKUP(F34,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>8</v>
+      </c>
       <c r="F34" t="s">
         <v>192</v>
       </c>
@@ -4205,6 +4344,10 @@
       <c r="D35">
         <v>1095</v>
       </c>
+      <c r="E35">
+        <f>VLOOKUP(F35,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>8</v>
+      </c>
       <c r="F35" t="s">
         <v>192</v>
       </c>
@@ -4222,6 +4365,10 @@
       <c r="D36">
         <v>730</v>
       </c>
+      <c r="E36">
+        <f>VLOOKUP(F36,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>9</v>
+      </c>
       <c r="F36" t="s">
         <v>195</v>
       </c>
@@ -4239,6 +4386,10 @@
       <c r="D37">
         <v>1095</v>
       </c>
+      <c r="E37">
+        <f>VLOOKUP(F37,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>9</v>
+      </c>
       <c r="F37" t="s">
         <v>195</v>
       </c>
@@ -4256,6 +4407,10 @@
       <c r="D38">
         <v>1095</v>
       </c>
+      <c r="E38">
+        <f>VLOOKUP(F38,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>9</v>
+      </c>
       <c r="F38" t="s">
         <v>195</v>
       </c>
@@ -4273,6 +4428,10 @@
       <c r="D39">
         <v>1095</v>
       </c>
+      <c r="E39">
+        <f>VLOOKUP(F39,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>9</v>
+      </c>
       <c r="F39" t="s">
         <v>195</v>
       </c>
@@ -4290,6 +4449,10 @@
       <c r="D40">
         <v>1095</v>
       </c>
+      <c r="E40">
+        <f>VLOOKUP(F40,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>9</v>
+      </c>
       <c r="F40" t="s">
         <v>195</v>
       </c>
@@ -4307,6 +4470,10 @@
       <c r="D41">
         <v>730</v>
       </c>
+      <c r="E41">
+        <f>VLOOKUP(F41,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>10</v>
+      </c>
       <c r="F41" t="s">
         <v>196</v>
       </c>
@@ -4324,6 +4491,10 @@
       <c r="D42">
         <v>730</v>
       </c>
+      <c r="E42">
+        <f>VLOOKUP(F42,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>10</v>
+      </c>
       <c r="F42" t="s">
         <v>196</v>
       </c>
@@ -4341,6 +4512,10 @@
       <c r="D43">
         <v>1095</v>
       </c>
+      <c r="E43">
+        <f>VLOOKUP(F43,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>10</v>
+      </c>
       <c r="F43" t="s">
         <v>196</v>
       </c>
@@ -4358,6 +4533,10 @@
       <c r="D44">
         <v>1095</v>
       </c>
+      <c r="E44">
+        <f>VLOOKUP(F44,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>10</v>
+      </c>
       <c r="F44" t="s">
         <v>196</v>
       </c>
@@ -4375,6 +4554,10 @@
       <c r="D45">
         <v>730</v>
       </c>
+      <c r="E45">
+        <f>VLOOKUP(F45,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>11</v>
+      </c>
       <c r="F45" t="s">
         <v>197</v>
       </c>
@@ -4392,6 +4575,10 @@
       <c r="D46">
         <v>730</v>
       </c>
+      <c r="E46">
+        <f>VLOOKUP(F46,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>11</v>
+      </c>
       <c r="F46" t="s">
         <v>197</v>
       </c>
@@ -4409,6 +4596,10 @@
       <c r="D47">
         <v>730</v>
       </c>
+      <c r="E47">
+        <f>VLOOKUP(F47,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F47" t="s">
         <v>198</v>
       </c>
@@ -4426,6 +4617,10 @@
       <c r="D48">
         <v>730</v>
       </c>
+      <c r="E48">
+        <f>VLOOKUP(F48,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F48" t="s">
         <v>198</v>
       </c>
@@ -4443,6 +4638,10 @@
       <c r="D49">
         <v>730</v>
       </c>
+      <c r="E49">
+        <f>VLOOKUP(F49,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F49" t="s">
         <v>198</v>
       </c>
@@ -4460,6 +4659,10 @@
       <c r="D50">
         <v>1095</v>
       </c>
+      <c r="E50">
+        <f>VLOOKUP(F50,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F50" t="s">
         <v>198</v>
       </c>
@@ -4477,6 +4680,10 @@
       <c r="D51">
         <v>1095</v>
       </c>
+      <c r="E51">
+        <f>VLOOKUP(F51,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F51" t="s">
         <v>198</v>
       </c>
@@ -4494,6 +4701,10 @@
       <c r="D52">
         <v>1095</v>
       </c>
+      <c r="E52">
+        <f>VLOOKUP(F52,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F52" t="s">
         <v>198</v>
       </c>
@@ -4511,6 +4722,10 @@
       <c r="D53">
         <v>1095</v>
       </c>
+      <c r="E53">
+        <f>VLOOKUP(F53,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>12</v>
+      </c>
       <c r="F53" t="s">
         <v>198</v>
       </c>
@@ -4528,6 +4743,10 @@
       <c r="D54">
         <v>730</v>
       </c>
+      <c r="E54">
+        <f>VLOOKUP(F54,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>13</v>
+      </c>
       <c r="F54" t="s">
         <v>203</v>
       </c>
@@ -4545,6 +4764,10 @@
       <c r="D55">
         <v>730</v>
       </c>
+      <c r="E55">
+        <f>VLOOKUP(F55,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>13</v>
+      </c>
       <c r="F55" t="s">
         <v>203</v>
       </c>
@@ -4562,6 +4785,10 @@
       <c r="D56">
         <v>1095</v>
       </c>
+      <c r="E56">
+        <f>VLOOKUP(F56,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>13</v>
+      </c>
       <c r="F56" t="s">
         <v>203</v>
       </c>
@@ -4579,6 +4806,10 @@
       <c r="D57">
         <v>1095</v>
       </c>
+      <c r="E57">
+        <f>VLOOKUP(F57,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>13</v>
+      </c>
       <c r="F57" t="s">
         <v>203</v>
       </c>
@@ -4596,6 +4827,10 @@
       <c r="D58">
         <v>1095</v>
       </c>
+      <c r="E58">
+        <f>VLOOKUP(F58,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>13</v>
+      </c>
       <c r="F58" t="s">
         <v>203</v>
       </c>
@@ -4613,6 +4848,10 @@
       <c r="D59">
         <v>730</v>
       </c>
+      <c r="E59">
+        <f>VLOOKUP(F59,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>14</v>
+      </c>
       <c r="F59" t="s">
         <v>205</v>
       </c>
@@ -4630,6 +4869,10 @@
       <c r="D60">
         <v>730</v>
       </c>
+      <c r="E60">
+        <f>VLOOKUP(F60,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>14</v>
+      </c>
       <c r="F60" t="s">
         <v>205</v>
       </c>
@@ -4647,6 +4890,10 @@
       <c r="D61">
         <v>1095</v>
       </c>
+      <c r="E61">
+        <f>VLOOKUP(F61,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>14</v>
+      </c>
       <c r="F61" t="s">
         <v>205</v>
       </c>
@@ -4664,6 +4911,10 @@
       <c r="D62">
         <v>1095</v>
       </c>
+      <c r="E62">
+        <f>VLOOKUP(F62,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>14</v>
+      </c>
       <c r="F62" t="s">
         <v>205</v>
       </c>
@@ -4681,6 +4932,10 @@
       <c r="D63">
         <v>1095</v>
       </c>
+      <c r="E63">
+        <f>VLOOKUP(F63,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>14</v>
+      </c>
       <c r="F63" t="s">
         <v>205</v>
       </c>
@@ -4698,6 +4953,10 @@
       <c r="D64">
         <v>730</v>
       </c>
+      <c r="E64">
+        <f>VLOOKUP(F64,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>15</v>
+      </c>
       <c r="F64" t="s">
         <v>207</v>
       </c>
@@ -4715,6 +4974,10 @@
       <c r="D65">
         <v>1095</v>
       </c>
+      <c r="E65">
+        <f>VLOOKUP(F65,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>15</v>
+      </c>
       <c r="F65" t="s">
         <v>207</v>
       </c>
@@ -4731,6 +4994,10 @@
       </c>
       <c r="D66">
         <v>1095</v>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP(F66,NgachLuong!$A$2:$D$16,3,)</f>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
         <v>207</v>

--- a/prisma/data/data.xlsx
+++ b/prisma/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C221E1A-E0FC-47BD-856D-B4B26A729A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565308C5-C61B-4669-99D1-579973749DFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phong" sheetId="1" r:id="rId1"/>
@@ -16,29 +16,19 @@
     <sheet name="HeSoTrachNhiem" sheetId="6" r:id="rId6"/>
     <sheet name="NgachLuong" sheetId="7" r:id="rId7"/>
     <sheet name="BacNgachLuong" sheetId="8" r:id="rId8"/>
+    <sheet name="ThongTinBHXH" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="246">
   <si>
     <t>ten</t>
   </si>
@@ -664,15 +654,6 @@
     <t>BV</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
@@ -712,9 +693,6 @@
     <t>2.31</t>
   </si>
   <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
@@ -724,15 +702,6 @@
     <t>1.99</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>VII</t>
-  </si>
-  <si>
     <t>1.19</t>
   </si>
   <si>
@@ -761,16 +730,75 @@
   </si>
   <si>
     <t>1.07</t>
+  </si>
+  <si>
+    <t>nhanVienId</t>
+  </si>
+  <si>
+    <t>nhanVien</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>bacNgachLuongId</t>
+  </si>
+  <si>
+    <t>bacNgachLuong</t>
+  </si>
+  <si>
+    <t>phuCapId</t>
+  </si>
+  <si>
+    <t>trachNhiemId</t>
+  </si>
+  <si>
+    <t>thongTin</t>
+  </si>
+  <si>
+    <t>ngachLuongId</t>
+  </si>
+  <si>
+    <t>ngachLuong</t>
+  </si>
+  <si>
+    <t>ngach_bac</t>
+  </si>
+  <si>
+    <t>ngayApDung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -793,15 +821,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{7AA38462-B4E3-4142-B8E5-5CA240ABFC79}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,1751 +1525,2057 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFF6293-3CAE-4316-A1D8-E258C43459EA}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
+      <c r="C14">
         <v>13</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
         <v>13</v>
       </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
         <v>13</v>
       </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
         <v>13</v>
       </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
         <v>13</v>
       </c>
-      <c r="E25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
         <v>13</v>
       </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
         <v>13</v>
       </c>
-      <c r="E27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="D36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>95</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>17</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>13</v>
+      </c>
+      <c r="D97">
         <v>96</v>
       </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98">
         <v>10</v>
       </c>
-      <c r="E38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
         <v>97</v>
       </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99">
         <v>10</v>
       </c>
-      <c r="E39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
         <v>98</v>
       </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>13</v>
-      </c>
-      <c r="E40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+      <c r="D100">
         <v>99</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+      <c r="D101">
         <v>100</v>
       </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>14</v>
+      </c>
+      <c r="D102">
         <v>101</v>
       </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>13</v>
-      </c>
-      <c r="E43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>13</v>
-      </c>
-      <c r="E46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>18</v>
-      </c>
-      <c r="E49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>17</v>
-      </c>
-      <c r="E50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>18</v>
-      </c>
-      <c r="E51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-      <c r="D52">
-        <v>17</v>
-      </c>
-      <c r="E52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>17</v>
-      </c>
-      <c r="E53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="D54">
-        <v>14</v>
-      </c>
-      <c r="E54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>14</v>
-      </c>
-      <c r="E55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56">
-        <v>9</v>
-      </c>
-      <c r="D56">
-        <v>14</v>
-      </c>
-      <c r="E56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>17</v>
-      </c>
-      <c r="E57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58">
-        <v>9</v>
-      </c>
-      <c r="D58">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="D59">
-        <v>14</v>
-      </c>
-      <c r="E59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60">
-        <v>14</v>
-      </c>
-      <c r="E60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>14</v>
-      </c>
-      <c r="E61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-      <c r="D62">
-        <v>14</v>
-      </c>
-      <c r="E62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64">
-        <v>9</v>
-      </c>
-      <c r="D64">
-        <v>14</v>
-      </c>
-      <c r="E64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65">
-        <v>9</v>
-      </c>
-      <c r="D65">
-        <v>14</v>
-      </c>
-      <c r="E65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66">
-        <v>14</v>
-      </c>
-      <c r="E66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>18</v>
-      </c>
-      <c r="E67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68">
-        <v>9</v>
-      </c>
-      <c r="D68">
-        <v>14</v>
-      </c>
-      <c r="E68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="E69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>14</v>
-      </c>
-      <c r="E70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>18</v>
-      </c>
-      <c r="E72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>14</v>
-      </c>
-      <c r="E73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>14</v>
-      </c>
-      <c r="E74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>18</v>
-      </c>
-      <c r="E75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76">
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>17</v>
-      </c>
-      <c r="E76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>14</v>
-      </c>
-      <c r="E77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>17</v>
-      </c>
-      <c r="E78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-      <c r="D79">
-        <v>17</v>
-      </c>
-      <c r="E79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>14</v>
-      </c>
-      <c r="E80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>14</v>
-      </c>
-      <c r="E81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>14</v>
-      </c>
-      <c r="E82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83">
-        <v>10</v>
-      </c>
-      <c r="D83">
-        <v>14</v>
-      </c>
-      <c r="E83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84">
-        <v>10</v>
-      </c>
-      <c r="D84">
-        <v>14</v>
-      </c>
-      <c r="E84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85">
-        <v>10</v>
-      </c>
-      <c r="D85">
-        <v>14</v>
-      </c>
-      <c r="E85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86">
-        <v>10</v>
-      </c>
-      <c r="D86">
-        <v>14</v>
-      </c>
-      <c r="E86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87">
-        <v>10</v>
-      </c>
-      <c r="D87">
-        <v>14</v>
-      </c>
-      <c r="E87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88">
-        <v>10</v>
-      </c>
-      <c r="D88">
-        <v>18</v>
-      </c>
-      <c r="E88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C89">
-        <v>10</v>
-      </c>
-      <c r="D89">
-        <v>14</v>
-      </c>
-      <c r="E89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90">
-        <v>10</v>
-      </c>
-      <c r="D90">
-        <v>14</v>
-      </c>
-      <c r="E90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91">
-        <v>10</v>
-      </c>
-      <c r="D91">
-        <v>14</v>
-      </c>
-      <c r="E91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92">
-        <v>10</v>
-      </c>
-      <c r="D92">
-        <v>14</v>
-      </c>
-      <c r="E92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93">
-        <v>10</v>
-      </c>
-      <c r="D93">
-        <v>14</v>
-      </c>
-      <c r="E93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>14</v>
-      </c>
-      <c r="E94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95">
-        <v>10</v>
-      </c>
-      <c r="D95">
-        <v>14</v>
-      </c>
-      <c r="E95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96">
-        <v>10</v>
-      </c>
-      <c r="D96">
-        <v>14</v>
-      </c>
-      <c r="E96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97">
-        <v>10</v>
-      </c>
-      <c r="D97">
-        <v>13</v>
-      </c>
-      <c r="E97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98">
-        <v>10</v>
-      </c>
-      <c r="D98">
-        <v>14</v>
-      </c>
-      <c r="E98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99">
-        <v>10</v>
-      </c>
-      <c r="D99">
-        <v>14</v>
-      </c>
-      <c r="E99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100">
-        <v>10</v>
-      </c>
-      <c r="D100">
-        <v>14</v>
-      </c>
-      <c r="E100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101">
-        <v>10</v>
-      </c>
-      <c r="D101">
-        <v>14</v>
-      </c>
-      <c r="E101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>14</v>
-      </c>
-      <c r="E102">
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102">
         <v>101</v>
       </c>
     </row>
@@ -3303,7 +3642,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,12 +3688,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3410,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C4F4A0-522F-405F-8756-FBF959ABE64C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,14 +3942,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3399BC39-814D-4AE6-9F36-AC3560A7DE9D}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -3618,35 +3958,39 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>F2&amp;B2</f>
+        <v>QL.051</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>211</v>
       </c>
       <c r="D2">
         <v>1095</v>
@@ -3658,16 +4002,20 @@
       <c r="F2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>F3&amp;B3</f>
+        <v>QL.052</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>212</v>
       </c>
       <c r="D3">
         <v>1095</v>
@@ -3679,16 +4027,20 @@
       <c r="F3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A66" si="0">F4&amp;B4</f>
+        <v>QL.053</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
       </c>
       <c r="D4">
         <v>1095</v>
@@ -3700,16 +4052,20 @@
       <c r="F4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>208</v>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.011</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D5">
         <v>1095</v>
@@ -3721,16 +4077,20 @@
       <c r="F5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>209</v>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.012</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>1095</v>
@@ -3742,16 +4102,20 @@
       <c r="F6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>210</v>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.013</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D7">
         <v>1095</v>
@@ -3763,16 +4127,20 @@
       <c r="F7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.021</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8">
         <v>1095</v>
@@ -3784,16 +4152,20 @@
       <c r="F8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>209</v>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.022</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D9">
         <v>1095</v>
@@ -3805,16 +4177,20 @@
       <c r="F9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.023</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D10">
         <v>1095</v>
@@ -3826,16 +4202,20 @@
       <c r="F10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>208</v>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.031</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D11">
         <v>1095</v>
@@ -3847,16 +4227,20 @@
       <c r="F11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>209</v>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.032</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D12">
         <v>1095</v>
@@ -3868,16 +4252,20 @@
       <c r="F12" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>210</v>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>QL.033</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D13">
         <v>1095</v>
@@ -3889,16 +4277,20 @@
       <c r="F13" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>208</v>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>A41</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D14">
         <v>1095</v>
@@ -3910,16 +4302,20 @@
       <c r="F14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>A42</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D15">
         <v>1095</v>
@@ -3931,16 +4327,20 @@
       <c r="F15" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>210</v>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>A43</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D16">
         <v>1095</v>
@@ -3952,16 +4352,20 @@
       <c r="F16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>224</v>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>A44</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D17">
         <v>1095</v>
@@ -3973,16 +4377,20 @@
       <c r="F17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>208</v>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>A31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D18">
         <v>1095</v>
@@ -3994,16 +4402,20 @@
       <c r="F18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>A32</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D19">
         <v>1095</v>
@@ -4015,16 +4427,20 @@
       <c r="F19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>210</v>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>A33</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D20">
         <v>1095</v>
@@ -4036,16 +4452,20 @@
       <c r="F20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>224</v>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>A34</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D21">
         <v>1095</v>
@@ -4057,16 +4477,20 @@
       <c r="F21" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>A35</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>228</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
       </c>
       <c r="D22">
         <v>1095</v>
@@ -4078,16 +4502,20 @@
       <c r="F22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>A36</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>229</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
       </c>
       <c r="D23">
         <v>1095</v>
@@ -4099,16 +4527,20 @@
       <c r="F23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>A37</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>230</v>
-      </c>
-      <c r="C24" t="s">
-        <v>237</v>
       </c>
       <c r="D24">
         <v>1095</v>
@@ -4120,16 +4552,20 @@
       <c r="F24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>230</v>
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>A38</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D25">
         <v>1095</v>
@@ -4141,16 +4577,20 @@
       <c r="F25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D26">
         <v>730</v>
@@ -4162,16 +4602,20 @@
       <c r="F26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>A22</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D27">
         <v>730</v>
@@ -4183,16 +4627,20 @@
       <c r="F27" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>A23</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D28">
         <v>1095</v>
@@ -4204,16 +4652,20 @@
       <c r="F28" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>224</v>
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>A24</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D29">
         <v>1095</v>
@@ -4225,16 +4677,20 @@
       <c r="F29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>A25</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D30">
         <v>1095</v>
@@ -4246,16 +4702,20 @@
       <c r="F30" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>208</v>
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D31">
         <v>730</v>
@@ -4267,16 +4727,20 @@
       <c r="F31" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>209</v>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>A12</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D32">
         <v>730</v>
@@ -4288,16 +4752,20 @@
       <c r="F32" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>210</v>
+      <c r="G32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>A13</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D33">
         <v>1095</v>
@@ -4309,16 +4777,20 @@
       <c r="F33" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
+      <c r="G33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>A14</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D34">
         <v>1095</v>
@@ -4330,16 +4802,20 @@
       <c r="F34" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>228</v>
+      <c r="G34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>A15</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D35">
         <v>1095</v>
@@ -4351,16 +4827,20 @@
       <c r="F35" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>208</v>
+      <c r="G35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>B41</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D36">
         <v>730</v>
@@ -4372,16 +4852,20 @@
       <c r="F36" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>209</v>
+      <c r="G36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>B42</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D37">
         <v>1095</v>
@@ -4393,16 +4877,20 @@
       <c r="F37" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>210</v>
+      <c r="G37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>B43</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D38">
         <v>1095</v>
@@ -4414,16 +4902,20 @@
       <c r="F38" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>224</v>
+      <c r="G38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>B44</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D39">
         <v>1095</v>
@@ -4435,16 +4927,20 @@
       <c r="F39" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>228</v>
+      <c r="G39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>B45</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D40">
         <v>1095</v>
@@ -4456,16 +4952,20 @@
       <c r="F40" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>208</v>
+      <c r="G40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>B31</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D41">
         <v>730</v>
@@ -4477,16 +4977,20 @@
       <c r="F41" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>209</v>
+      <c r="G41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>B32</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D42">
         <v>730</v>
@@ -4498,16 +5002,20 @@
       <c r="F42" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>210</v>
+      <c r="G42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>B33</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D43">
         <v>1095</v>
@@ -4519,16 +5027,20 @@
       <c r="F43" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>224</v>
+      <c r="G43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>B34</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D44">
         <v>1095</v>
@@ -4540,16 +5052,20 @@
       <c r="F44" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>208</v>
+      <c r="G44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>B21</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D45">
         <v>730</v>
@@ -4561,16 +5077,20 @@
       <c r="F45" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>209</v>
+      <c r="G45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>B22</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D46">
         <v>730</v>
@@ -4582,16 +5102,20 @@
       <c r="F46" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>208</v>
+      <c r="G46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>B11</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D47">
         <v>730</v>
@@ -4603,16 +5127,20 @@
       <c r="F47" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>209</v>
+      <c r="G47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>B12</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D48">
         <v>730</v>
@@ -4624,16 +5152,20 @@
       <c r="F48" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>210</v>
+      <c r="G48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>B13</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D49">
         <v>730</v>
@@ -4645,16 +5177,20 @@
       <c r="F49" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>224</v>
+      <c r="G49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>B14</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D50">
         <v>1095</v>
@@ -4666,16 +5202,20 @@
       <c r="F50" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>228</v>
+      <c r="G50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>B15</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D51">
         <v>1095</v>
@@ -4687,16 +5227,20 @@
       <c r="F51" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>229</v>
+      <c r="G51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>B16</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D52">
         <v>1095</v>
@@ -4708,16 +5252,20 @@
       <c r="F52" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>230</v>
+      <c r="G52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>B17</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D53">
         <v>1095</v>
@@ -4729,16 +5277,20 @@
       <c r="F53" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>208</v>
+      <c r="G53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>VT1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D54">
         <v>730</v>
@@ -4750,16 +5302,20 @@
       <c r="F54" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>209</v>
+      <c r="G54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>VT2</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D55">
         <v>730</v>
@@ -4771,16 +5327,20 @@
       <c r="F55" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>210</v>
+      <c r="G55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>VT3</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D56">
         <v>1095</v>
@@ -4792,16 +5352,20 @@
       <c r="F56" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>224</v>
+      <c r="G56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>VT4</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D57">
         <v>1095</v>
@@ -4813,16 +5377,20 @@
       <c r="F57" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>228</v>
+      <c r="G57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>VT5</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D58">
         <v>1095</v>
@@ -4834,16 +5402,20 @@
       <c r="F58" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>208</v>
+      <c r="G58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>LX1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D59">
         <v>730</v>
@@ -4855,16 +5427,20 @@
       <c r="F59" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>209</v>
+      <c r="G59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>LX2</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D60">
         <v>730</v>
@@ -4876,16 +5452,20 @@
       <c r="F60" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>210</v>
+      <c r="G60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>LX3</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D61">
         <v>1095</v>
@@ -4897,16 +5477,20 @@
       <c r="F61" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>224</v>
+      <c r="G61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>LX4</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D62">
         <v>1095</v>
@@ -4918,16 +5502,20 @@
       <c r="F62" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>228</v>
+      <c r="G62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>LX5</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D63">
         <v>1095</v>
@@ -4939,16 +5527,20 @@
       <c r="F63" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>208</v>
+      <c r="G63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>BV1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64">
         <v>730</v>
@@ -4960,16 +5552,20 @@
       <c r="F64" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>209</v>
+      <c r="G64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>BV2</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D65">
         <v>1095</v>
@@ -4981,16 +5577,20 @@
       <c r="F65" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>210</v>
+      <c r="G65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>BV3</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D66">
         <v>1095</v>
@@ -5001,6 +5601,2777 @@
       </c>
       <c r="F66" t="s">
         <v>207</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A848FCD-4BD6-4761-B1AB-862EBFEAB588}">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>VLOOKUP(B2,NhanVien!$A$2:$F$102,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(D2,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(D2&amp;F2,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>VLOOKUP(B3,NhanVien!$A$2:$F$102,6,)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(D3,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(D3&amp;F3,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>VLOOKUP(B4,NhanVien!$A$2:$F$102,6,)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(D4,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(D4&amp;F4,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>VLOOKUP(B5,NhanVien!$A$2:$F$102,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(D5,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(D5&amp;F5,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>VLOOKUP(B6,NhanVien!$A$2:$F$102,6,)</f>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(D6,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(D6&amp;F6,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>VLOOKUP(B7,NhanVien!$A$2:$F$102,6,)</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(D7,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(D7&amp;F7,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>VLOOKUP(B8,NhanVien!$A$2:$F$102,6,)</f>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(D8,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(D8&amp;F8,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>VLOOKUP(B9,NhanVien!$A$2:$F$102,6,)</f>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(D9,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(D9&amp;F9,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>VLOOKUP(B10,NhanVien!$A$2:$F$102,6,)</f>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(D10,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(D10&amp;F10,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>VLOOKUP(B11,NhanVien!$A$2:$F$102,6,)</f>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(D11,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(D11&amp;F11,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>VLOOKUP(B12,NhanVien!$A$2:$F$102,6,)</f>
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(D12,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(D12&amp;F12,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>VLOOKUP(B13,NhanVien!$A$2:$F$102,6,)</f>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(D13,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(D13&amp;F13,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>VLOOKUP(B14,NhanVien!$A$2:$F$102,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(D14,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(D14&amp;F14,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>VLOOKUP(B15,NhanVien!$A$2:$F$102,6,)</f>
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(D15,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(D15&amp;F15,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>VLOOKUP(B16,NhanVien!$A$2:$F$102,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(D16,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(D16&amp;F16,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>VLOOKUP(B17,NhanVien!$A$2:$F$102,6,)</f>
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(D17,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(D17&amp;F17,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>VLOOKUP(B18,NhanVien!$A$2:$F$102,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(D18,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(D18&amp;F18,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>VLOOKUP(B19,NhanVien!$A$2:$F$102,6,)</f>
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(D19,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(D19&amp;F19,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>VLOOKUP(B20,NhanVien!$A$2:$F$102,6,)</f>
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(D20,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(D20&amp;F20,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>VLOOKUP(B21,NhanVien!$A$2:$F$102,6,)</f>
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(D21,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(D21&amp;F21,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>VLOOKUP(B22,NhanVien!$A$2:$F$102,6,)</f>
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(D22,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(D22&amp;F22,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>VLOOKUP(B23,NhanVien!$A$2:$F$102,6,)</f>
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(D23,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(D23&amp;F23,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>VLOOKUP(B24,NhanVien!$A$2:$F$102,6,)</f>
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(D24,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(D24&amp;F24,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>VLOOKUP(B25,NhanVien!$A$2:$F$102,6,)</f>
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(D25,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(D25&amp;F25,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>VLOOKUP(B26,NhanVien!$A$2:$F$102,6,)</f>
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(D26,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(D26&amp;F26,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>VLOOKUP(B27,NhanVien!$A$2:$F$102,6,)</f>
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(D27,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(D27&amp;F27,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>VLOOKUP(B28,NhanVien!$A$2:$F$102,6,)</f>
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(D28,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(D28&amp;F28,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>VLOOKUP(B29,NhanVien!$A$2:$F$102,6,)</f>
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(D29,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(D29&amp;F29,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>VLOOKUP(B30,NhanVien!$A$2:$F$102,6,)</f>
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(D30,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(D30&amp;F30,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>VLOOKUP(B31,NhanVien!$A$2:$F$102,6,)</f>
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(D31,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(D31&amp;F31,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>VLOOKUP(B32,NhanVien!$A$2:$F$102,6,)</f>
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(D32,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(D32&amp;F32,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>VLOOKUP(B33,NhanVien!$A$2:$F$102,6,)</f>
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(D33,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(D33&amp;F33,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>VLOOKUP(B34,NhanVien!$A$2:$F$102,6,)</f>
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(D34,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(D34&amp;F34,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>VLOOKUP(B35,NhanVien!$A$2:$F$102,6,)</f>
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP(D35,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(D35&amp;F35,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>VLOOKUP(B36,NhanVien!$A$2:$F$102,6,)</f>
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(D36,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(D36&amp;F36,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>VLOOKUP(B37,NhanVien!$A$2:$F$102,6,)</f>
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(D37,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(D37&amp;F37,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>VLOOKUP(B38,NhanVien!$A$2:$F$102,6,)</f>
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(D38,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(D38&amp;F38,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>VLOOKUP(B39,NhanVien!$A$2:$F$102,6,)</f>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP(D39,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(D39&amp;F39,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>VLOOKUP(B40,NhanVien!$A$2:$F$102,6,)</f>
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP(D40,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(D40&amp;F40,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>VLOOKUP(B41,NhanVien!$A$2:$F$102,6,)</f>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP(D41,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(D41&amp;F41,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>VLOOKUP(B42,NhanVien!$A$2:$F$102,6,)</f>
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(D42,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(D42&amp;F42,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>VLOOKUP(B43,NhanVien!$A$2:$F$102,6,)</f>
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(D43,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(D43&amp;F43,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>23</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>VLOOKUP(B44,NhanVien!$A$2:$F$102,6,)</f>
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(D44,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(D44&amp;F44,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>VLOOKUP(B45,NhanVien!$A$2:$F$102,6,)</f>
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(D45,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(D45&amp;F45,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>VLOOKUP(B46,NhanVien!$A$2:$F$102,6,)</f>
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP(D46,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(D46&amp;F46,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>VLOOKUP(B47,NhanVien!$A$2:$F$102,6,)</f>
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP(D47,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(D47&amp;F47,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>VLOOKUP(B48,NhanVien!$A$2:$F$102,6,)</f>
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(D48,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP(D48&amp;F48,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>37</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>VLOOKUP(B49,NhanVien!$A$2:$F$102,6,)</f>
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP(D49,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP(D49&amp;F49,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>VLOOKUP(B50,NhanVien!$A$2:$F$102,6,)</f>
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(D50,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP(D50&amp;F50,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>VLOOKUP(B51,NhanVien!$A$2:$F$102,6,)</f>
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP(D51,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP(D51&amp;F51,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>36</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>VLOOKUP(B52,NhanVien!$A$2:$F$102,6,)</f>
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(D52,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP(D52&amp;F52,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>27</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>VLOOKUP(B53,NhanVien!$A$2:$F$102,6,)</f>
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(D53,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP(D53&amp;F53,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>VLOOKUP(B54,NhanVien!$A$2:$F$102,6,)</f>
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(D54,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP(D54&amp;F54,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>43</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>VLOOKUP(B55,NhanVien!$A$2:$F$102,6,)</f>
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(D55,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP(D55&amp;F55,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>36</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>VLOOKUP(B56,NhanVien!$A$2:$F$102,6,)</f>
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(D56,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP(D56&amp;F56,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>48</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>VLOOKUP(B57,NhanVien!$A$2:$F$102,6,)</f>
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(D57,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP(D57&amp;F57,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>51</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>VLOOKUP(B58,NhanVien!$A$2:$F$102,6,)</f>
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP(D58,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP(D58&amp;F58,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>50</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>VLOOKUP(B59,NhanVien!$A$2:$F$102,6,)</f>
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP(D59,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP(D59&amp;F59,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>49</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>VLOOKUP(B60,NhanVien!$A$2:$F$102,6,)</f>
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(D60,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP(D60&amp;F60,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>41</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>VLOOKUP(B61,NhanVien!$A$2:$F$102,6,)</f>
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP(D61,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP(D61&amp;F61,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>VLOOKUP(B62,NhanVien!$A$2:$F$102,6,)</f>
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP(D62,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP(D62&amp;F62,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>VLOOKUP(B63,NhanVien!$A$2:$F$102,6,)</f>
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(D63,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP(D63&amp;F63,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>VLOOKUP(B64,NhanVien!$A$2:$F$102,6,)</f>
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(D64,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64">
+        <f>VLOOKUP(D64&amp;F64,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>VLOOKUP(B65,NhanVien!$A$2:$F$102,6,)</f>
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP(D65,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65">
+        <f>VLOOKUP(D65&amp;F65,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>VLOOKUP(B66,NhanVien!$A$2:$F$102,6,)</f>
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP(D66,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP(D66&amp;F66,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>48</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>VLOOKUP(B67,NhanVien!$A$2:$F$102,6,)</f>
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(D67,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67">
+        <f>VLOOKUP(D67&amp;F67,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>48</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>VLOOKUP(B68,NhanVien!$A$2:$F$102,6,)</f>
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(D68,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68">
+        <f>VLOOKUP(D68&amp;F68,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>VLOOKUP(B69,NhanVien!$A$2:$F$102,6,)</f>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(D69,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69">
+        <f>VLOOKUP(D69&amp;F69,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>21</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>VLOOKUP(B70,NhanVien!$A$2:$F$102,6,)</f>
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(D70,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70">
+        <f>VLOOKUP(D70&amp;F70,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>VLOOKUP(B71,NhanVien!$A$2:$F$102,6,)</f>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(D71,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71">
+        <f>VLOOKUP(D71&amp;F71,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>62</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>VLOOKUP(B72,NhanVien!$A$2:$F$102,6,)</f>
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(D72,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72">
+        <f>VLOOKUP(D72&amp;F72,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>37</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>VLOOKUP(B73,NhanVien!$A$2:$F$102,6,)</f>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(D73,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E73">
+        <f>VLOOKUP(D73&amp;F73,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>36</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>VLOOKUP(B74,NhanVien!$A$2:$F$102,6,)</f>
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP(D74,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74">
+        <f>VLOOKUP(D74&amp;F74,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>36</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>VLOOKUP(B75,NhanVien!$A$2:$F$102,6,)</f>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(D75,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75">
+        <f>VLOOKUP(D75&amp;F75,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>37</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>VLOOKUP(B76,NhanVien!$A$2:$F$102,6,)</f>
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP(D76,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76">
+        <f>VLOOKUP(D76&amp;F76,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>43</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>VLOOKUP(B77,NhanVien!$A$2:$F$102,6,)</f>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP(D77,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77">
+        <f>VLOOKUP(D77&amp;F77,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>VLOOKUP(B78,NhanVien!$A$2:$F$102,6,)</f>
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP(D78,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78">
+        <f>VLOOKUP(D78&amp;F78,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>VLOOKUP(B79,NhanVien!$A$2:$F$102,6,)</f>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79">
+        <f>VLOOKUP(D79,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79">
+        <f>VLOOKUP(D79&amp;F79,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>VLOOKUP(B80,NhanVien!$A$2:$F$102,6,)</f>
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80">
+        <f>VLOOKUP(D80,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80">
+        <f>VLOOKUP(D80&amp;F80,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>VLOOKUP(B81,NhanVien!$A$2:$F$102,6,)</f>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP(D81,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81">
+        <f>VLOOKUP(D81&amp;F81,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>42</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>VLOOKUP(B82,NhanVien!$A$2:$F$102,6,)</f>
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82">
+        <f>VLOOKUP(D82,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82">
+        <f>VLOOKUP(D82&amp;F82,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>41</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>VLOOKUP(B83,NhanVien!$A$2:$F$102,6,)</f>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(D83,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83">
+        <f>VLOOKUP(D83&amp;F83,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>VLOOKUP(B84,NhanVien!$A$2:$F$102,6,)</f>
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP(D84,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84">
+        <f>VLOOKUP(D84&amp;F84,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>51</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="K84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>VLOOKUP(B85,NhanVien!$A$2:$F$102,6,)</f>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP(D85,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85">
+        <f>VLOOKUP(D85&amp;F85,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>51</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>VLOOKUP(B86,NhanVien!$A$2:$F$102,6,)</f>
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP(D86,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86">
+        <f>VLOOKUP(D86&amp;F86,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>51</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="K86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>VLOOKUP(B87,NhanVien!$A$2:$F$102,6,)</f>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87">
+        <f>VLOOKUP(D87,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87">
+        <f>VLOOKUP(D87&amp;F87,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>49</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>VLOOKUP(B88,NhanVien!$A$2:$F$102,6,)</f>
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP(D88,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88">
+        <f>VLOOKUP(D88&amp;F88,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>51</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>VLOOKUP(B89,NhanVien!$A$2:$F$102,6,)</f>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89">
+        <f>VLOOKUP(D89,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89">
+        <f>VLOOKUP(D89&amp;F89,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>49</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>VLOOKUP(B90,NhanVien!$A$2:$F$102,6,)</f>
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90">
+        <f>VLOOKUP(D90,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E90">
+        <f>VLOOKUP(D90&amp;F90,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>41</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>VLOOKUP(B91,NhanVien!$A$2:$F$102,6,)</f>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91">
+        <f>VLOOKUP(D91,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91">
+        <f>VLOOKUP(D91&amp;F91,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>48</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>VLOOKUP(B92,NhanVien!$A$2:$F$102,6,)</f>
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92">
+        <f>VLOOKUP(D92,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E92">
+        <f>VLOOKUP(D92&amp;F92,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>48</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>VLOOKUP(B93,NhanVien!$A$2:$F$102,6,)</f>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93">
+        <f>VLOOKUP(D93,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93">
+        <f>VLOOKUP(D93&amp;F93,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>48</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>VLOOKUP(B94,NhanVien!$A$2:$F$102,6,)</f>
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94">
+        <f>VLOOKUP(D94,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94">
+        <f>VLOOKUP(D94&amp;F94,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>VLOOKUP(B95,NhanVien!$A$2:$F$102,6,)</f>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95">
+        <f>VLOOKUP(D95,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95">
+        <f>VLOOKUP(D95&amp;F95,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>45</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>VLOOKUP(B96,NhanVien!$A$2:$F$102,6,)</f>
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96">
+        <f>VLOOKUP(D96,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96">
+        <f>VLOOKUP(D96&amp;F96,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>47</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>VLOOKUP(B97,NhanVien!$A$2:$F$102,6,)</f>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97">
+        <f>VLOOKUP(D97,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97">
+        <f>VLOOKUP(D97&amp;F97,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>44</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>VLOOKUP(B98,NhanVien!$A$2:$F$102,6,)</f>
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98">
+        <f>VLOOKUP(D98,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98">
+        <f>VLOOKUP(D98&amp;F98,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>65</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>VLOOKUP(B99,NhanVien!$A$2:$F$102,6,)</f>
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99">
+        <f>VLOOKUP(D99,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99">
+        <f>VLOOKUP(D99&amp;F99,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>64</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>VLOOKUP(B100,NhanVien!$A$2:$F$102,6,)</f>
+        <v>69</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100">
+        <f>VLOOKUP(D100,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100">
+        <f>VLOOKUP(D100&amp;F100,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>65</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>VLOOKUP(B101,NhanVien!$A$2:$F$102,6,)</f>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101">
+        <f>VLOOKUP(D101,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101">
+        <f>VLOOKUP(D101&amp;F101,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>65</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>VLOOKUP(B102,NhanVien!$A$2:$F$102,6,)</f>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102">
+        <f>VLOOKUP(D102,NgachLuong!$A$2:$C$16,3,)</f>
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102">
+        <f>VLOOKUP(D102&amp;F102,BacNgachLuong!$A$2:$G$66,7,)</f>
+        <v>65</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/prisma/data/data.xlsx
+++ b/prisma/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565308C5-C61B-4669-99D1-579973749DFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E7A5F5-0E21-4CFE-863C-AE342D1CC798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phong" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="NgachLuong" sheetId="7" r:id="rId7"/>
     <sheet name="BacNgachLuong" sheetId="8" r:id="rId8"/>
     <sheet name="ThongTinBHXH" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
+    <sheet name="HeSoLuongMax" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,8 +29,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I99" authorId="0" shapeId="0" xr:uid="{41D88400-9C50-4D93-AE40-6E4A81EA4474}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+KK T 8/2022. Tham gia dóng T7/2022</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="281">
   <si>
     <t>ten</t>
   </si>
@@ -540,9 +578,6 @@
     <t>Trưởng phòng, Giám đốc chi nhánh trực thuộc Công ty hoặc tương đương</t>
   </si>
   <si>
-    <t>Phó trưởng phòng, Phó Giám đốc Chi nhánh trực thuộc Công ty hoặc tương đương.</t>
-  </si>
-  <si>
     <t>maNgach</t>
   </si>
   <si>
@@ -766,13 +801,121 @@
   </si>
   <si>
     <t>ngayApDung</t>
+  </si>
+  <si>
+    <t>2024-07-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2025-01-04T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2020-05-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-10-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2021-09-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-08-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-06-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-07-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2025-01-05T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-07-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2019-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-10-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-08-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-11-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-03-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-09-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-08-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-10-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2025-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2021-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-04-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-11-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-09-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2011-05-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2014-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2017-05-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2017-04-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>Phó trưởng phòng, Phó Giám đốc Chi nhánh trực thuộc Công ty hoặc tương đương</t>
+  </si>
+  <si>
+    <t>isMax</t>
+  </si>
+  <si>
+    <t>bacMax</t>
+  </si>
+  <si>
+    <t>isMaxBac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,16 +946,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990099"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -820,17 +1007,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,6 +1498,2056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FC3629-DC82-48E4-A265-AB5A90CC8EFF}">
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>48</v>
+      </c>
+      <c r="E67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>265</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>37</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>36</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>274</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>43</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>42</v>
+      </c>
+      <c r="E77" t="s">
+        <v>251</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>42</v>
+      </c>
+      <c r="E78" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>42</v>
+      </c>
+      <c r="E79" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>42</v>
+      </c>
+      <c r="E81" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>51</v>
+      </c>
+      <c r="E83" t="s">
+        <v>275</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>51</v>
+      </c>
+      <c r="E84" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>51</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>51</v>
+      </c>
+      <c r="E86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>49</v>
+      </c>
+      <c r="E87" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>51</v>
+      </c>
+      <c r="E88" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>49</v>
+      </c>
+      <c r="E89" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>251</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>48</v>
+      </c>
+      <c r="E92" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>48</v>
+      </c>
+      <c r="E93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>47</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
+        <v>261</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>65</v>
+      </c>
+      <c r="E98" t="s">
+        <v>256</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>64</v>
+      </c>
+      <c r="E99" t="s">
+        <v>265</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>69</v>
+      </c>
+      <c r="B100">
+        <v>65</v>
+      </c>
+      <c r="E100" t="s">
+        <v>256</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>65</v>
+      </c>
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>65</v>
+      </c>
+      <c r="E102" t="s">
+        <v>256</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7F0B42-9B7B-43A2-9C1A-D114426684BA}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBF4B1F-D1F2-4F8F-81BF-7BC642A89193}">
   <dimension ref="A1:C20"/>
@@ -1528,7 +3792,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,22 +3804,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3589,7 +5853,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,16 +5864,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3637,7 +5901,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,13 +5910,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3664,7 +5928,7 @@
         <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,10 +5936,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3697,13 +5961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3712,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
         <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3726,7 +5990,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3737,7 +6001,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +6014,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,22 +6024,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3783,10 +6047,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3794,10 +6058,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3805,7 +6069,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -3816,10 +6080,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3827,10 +6091,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3838,10 +6102,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3849,10 +6113,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
         <v>192</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3860,10 +6124,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3871,10 +6135,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3882,10 +6146,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3893,10 +6157,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3904,10 +6168,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3915,10 +6179,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3926,10 +6190,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3945,7 +6209,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,22 +6224,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>211</v>
+      <c r="F1" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>59</v>
@@ -3990,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2">
         <v>1095</v>
@@ -4000,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4015,7 +6279,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3">
         <v>1095</v>
@@ -4025,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4040,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>1095</v>
@@ -4050,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4065,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5">
         <v>1095</v>
@@ -4075,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4090,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6">
         <v>1095</v>
@@ -4100,7 +6364,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4115,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7">
         <v>1095</v>
@@ -4125,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -4140,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8">
         <v>1095</v>
@@ -4150,7 +6414,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -4165,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9">
         <v>1095</v>
@@ -4175,7 +6439,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -4190,7 +6454,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10">
         <v>1095</v>
@@ -4200,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -4215,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11">
         <v>1095</v>
@@ -4225,7 +6489,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -4240,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12">
         <v>1095</v>
@@ -4250,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -4265,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13">
         <v>1095</v>
@@ -4275,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -4290,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14">
         <v>1095</v>
@@ -4300,7 +6564,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -4315,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15">
         <v>1095</v>
@@ -4325,7 +6589,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -4340,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16">
         <v>1095</v>
@@ -4350,7 +6614,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -4365,7 +6629,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17">
         <v>1095</v>
@@ -4375,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -4390,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18">
         <v>1095</v>
@@ -4400,7 +6664,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -4415,7 +6679,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19">
         <v>1095</v>
@@ -4425,7 +6689,7 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -4440,7 +6704,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20">
         <v>1095</v>
@@ -4450,7 +6714,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G20">
         <v>19</v>
@@ -4465,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21">
         <v>1095</v>
@@ -4475,7 +6739,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -4490,7 +6754,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22">
         <v>1095</v>
@@ -4500,7 +6764,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -4515,7 +6779,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23">
         <v>1095</v>
@@ -4525,7 +6789,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -4540,7 +6804,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24">
         <v>1095</v>
@@ -4550,7 +6814,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -4565,7 +6829,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25">
         <v>1095</v>
@@ -4575,7 +6839,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -4590,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26">
         <v>730</v>
@@ -4600,7 +6864,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -4615,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27">
         <v>730</v>
@@ -4625,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -4640,7 +6904,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28">
         <v>1095</v>
@@ -4650,7 +6914,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -4665,7 +6929,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29">
         <v>1095</v>
@@ -4675,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -4690,7 +6954,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30">
         <v>1095</v>
@@ -4700,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30">
         <v>29</v>
@@ -4715,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31">
         <v>730</v>
@@ -4725,7 +6989,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31">
         <v>30</v>
@@ -4740,7 +7004,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32">
         <v>730</v>
@@ -4750,7 +7014,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G32">
         <v>31</v>
@@ -4765,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33">
         <v>1095</v>
@@ -4775,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G33">
         <v>32</v>
@@ -4790,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34">
         <v>1095</v>
@@ -4800,7 +7064,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G34">
         <v>33</v>
@@ -4815,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35">
         <v>1095</v>
@@ -4825,7 +7089,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35">
         <v>34</v>
@@ -4840,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36">
         <v>730</v>
@@ -4850,7 +7114,7 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G36">
         <v>35</v>
@@ -4865,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37">
         <v>1095</v>
@@ -4875,7 +7139,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G37">
         <v>36</v>
@@ -4890,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D38">
         <v>1095</v>
@@ -4900,7 +7164,7 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G38">
         <v>37</v>
@@ -4915,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39">
         <v>1095</v>
@@ -4925,7 +7189,7 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G39">
         <v>38</v>
@@ -4940,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40">
         <v>1095</v>
@@ -4950,7 +7214,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G40">
         <v>39</v>
@@ -4965,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41">
         <v>730</v>
@@ -4975,7 +7239,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G41">
         <v>40</v>
@@ -4990,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D42">
         <v>730</v>
@@ -5000,7 +7264,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G42">
         <v>41</v>
@@ -5015,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D43">
         <v>1095</v>
@@ -5025,7 +7289,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -5040,7 +7304,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44">
         <v>1095</v>
@@ -5050,7 +7314,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G44">
         <v>43</v>
@@ -5065,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45">
         <v>730</v>
@@ -5075,7 +7339,7 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G45">
         <v>44</v>
@@ -5090,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46">
         <v>730</v>
@@ -5100,7 +7364,7 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -5115,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D47">
         <v>730</v>
@@ -5125,7 +7389,7 @@
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G47">
         <v>46</v>
@@ -5140,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48">
         <v>730</v>
@@ -5150,7 +7414,7 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G48">
         <v>47</v>
@@ -5165,7 +7429,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49">
         <v>730</v>
@@ -5175,7 +7439,7 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G49">
         <v>48</v>
@@ -5190,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50">
         <v>1095</v>
@@ -5200,7 +7464,7 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G50">
         <v>49</v>
@@ -5215,7 +7479,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51">
         <v>1095</v>
@@ -5225,7 +7489,7 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -5240,7 +7504,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52">
         <v>1095</v>
@@ -5250,7 +7514,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G52">
         <v>51</v>
@@ -5265,7 +7529,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53">
         <v>1095</v>
@@ -5275,7 +7539,7 @@
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G53">
         <v>52</v>
@@ -5290,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54">
         <v>730</v>
@@ -5300,7 +7564,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G54">
         <v>53</v>
@@ -5315,7 +7579,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55">
         <v>730</v>
@@ -5325,7 +7589,7 @@
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G55">
         <v>54</v>
@@ -5340,7 +7604,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56">
         <v>1095</v>
@@ -5350,7 +7614,7 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G56">
         <v>55</v>
@@ -5365,7 +7629,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57">
         <v>1095</v>
@@ -5375,7 +7639,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G57">
         <v>56</v>
@@ -5390,7 +7654,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58">
         <v>1095</v>
@@ -5400,7 +7664,7 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G58">
         <v>57</v>
@@ -5415,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59">
         <v>730</v>
@@ -5425,7 +7689,7 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G59">
         <v>58</v>
@@ -5440,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60">
         <v>730</v>
@@ -5450,7 +7714,7 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G60">
         <v>59</v>
@@ -5465,7 +7729,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D61">
         <v>1095</v>
@@ -5475,7 +7739,7 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G61">
         <v>60</v>
@@ -5490,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D62">
         <v>1095</v>
@@ -5500,7 +7764,7 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G62">
         <v>61</v>
@@ -5515,7 +7779,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D63">
         <v>1095</v>
@@ -5525,7 +7789,7 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63">
         <v>62</v>
@@ -5540,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D64">
         <v>730</v>
@@ -5550,7 +7814,7 @@
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G64">
         <v>63</v>
@@ -5565,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65">
         <v>1095</v>
@@ -5575,7 +7839,7 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G65">
         <v>64</v>
@@ -5590,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D66">
         <v>1095</v>
@@ -5600,7 +7864,7 @@
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G66">
         <v>65</v>
@@ -5612,11 +7876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A848FCD-4BD6-4761-B1AB-862EBFEAB588}">
-  <dimension ref="A1:K102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A848FCD-4BD6-4761-B1AB-862EBFEAB588}">
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" activeCellId="7" sqref="A1:A1048576 E1:E1048576 G1:G1048576 H1:H1048576 J1:J1048576 L1:L1048576 K1:K1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5628,46 +7892,52 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="11" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>VLOOKUP(B2,NhanVien!$A$2:$F$102,6,)</f>
         <v>1</v>
@@ -5680,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(D2&amp;F2,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5689,11 +7959,18 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="5">
+        <v>45474</v>
+      </c>
+      <c r="J2" t="str">
+        <f>TEXT(I2,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
+        <v>2024-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>VLOOKUP(B3,NhanVien!$A$2:$F$102,6,)</f>
         <v>2</v>
@@ -5706,7 +7983,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(D3&amp;F3,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5715,11 +7992,18 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="I3" s="5">
+        <v>45661</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">TEXT(I3,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
+        <v>2025-01-04T00:00:00+07:00</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>VLOOKUP(B4,NhanVien!$A$2:$F$102,6,)</f>
         <v>3</v>
@@ -5732,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(D4&amp;F4,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5741,11 +8025,18 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="I4" s="5">
+        <v>43952</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-05-01T00:00:00+07:00</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>VLOOKUP(B5,NhanVien!$A$2:$F$102,6,)</f>
         <v>4</v>
@@ -5758,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(D5&amp;F5,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5767,11 +8058,18 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="I5" s="5">
+        <v>45566</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>VLOOKUP(B6,NhanVien!$A$2:$F$102,6,)</f>
         <v>17</v>
@@ -5784,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6">
         <f>VLOOKUP(D6&amp;F6,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5793,11 +8091,18 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="I6" s="5">
+        <v>44562</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>VLOOKUP(B7,NhanVien!$A$2:$F$102,6,)</f>
         <v>6</v>
@@ -5810,7 +8115,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <f>VLOOKUP(D7&amp;F7,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5822,11 +8127,18 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="I7" s="5">
+        <v>44440</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-09-01T00:00:00+07:00</v>
+      </c>
+      <c r="M7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>VLOOKUP(B8,NhanVien!$A$2:$F$102,6,)</f>
         <v>18</v>
@@ -5839,7 +8151,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8">
         <f>VLOOKUP(D8&amp;F8,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5848,11 +8160,18 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="I8" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>VLOOKUP(B9,NhanVien!$A$2:$F$102,6,)</f>
         <v>19</v>
@@ -5865,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <f>VLOOKUP(D9&amp;F9,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5874,11 +8193,18 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="I9" s="6">
+        <v>44774</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>VLOOKUP(B10,NhanVien!$A$2:$F$102,6,)</f>
         <v>20</v>
@@ -5891,7 +8217,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10">
         <f>VLOOKUP(D10&amp;F10,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5900,11 +8226,18 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="I10" s="6">
+        <v>45444</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-01T00:00:00+07:00</v>
+      </c>
+      <c r="M10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>VLOOKUP(B11,NhanVien!$A$2:$F$102,6,)</f>
         <v>21</v>
@@ -5917,7 +8250,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11">
         <f>VLOOKUP(D11&amp;F11,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5926,11 +8259,18 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="I11" s="6">
+        <v>45566</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>VLOOKUP(B12,NhanVien!$A$2:$F$102,6,)</f>
         <v>5</v>
@@ -5943,7 +8283,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <f>VLOOKUP(D12&amp;F12,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5955,11 +8295,18 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="I12" s="5">
+        <v>45108</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>VLOOKUP(B13,NhanVien!$A$2:$F$102,6,)</f>
         <v>7</v>
@@ -5972,7 +8319,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13">
         <f>VLOOKUP(D13&amp;F13,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -5984,11 +8331,18 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="I13" s="5">
+        <v>45661</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-01-04T00:00:00+07:00</v>
+      </c>
+      <c r="M13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>VLOOKUP(B14,NhanVien!$A$2:$F$102,6,)</f>
         <v>8</v>
@@ -6001,7 +8355,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14">
         <f>VLOOKUP(D14&amp;F14,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6010,11 +8364,18 @@
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="I14" s="5">
+        <v>45662</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-01-05T00:00:00+07:00</v>
+      </c>
+      <c r="M14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>VLOOKUP(B15,NhanVien!$A$2:$F$102,6,)</f>
         <v>9</v>
@@ -6027,7 +8388,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15">
         <f>VLOOKUP(D15&amp;F15,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6036,11 +8397,18 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="I15" s="5">
+        <v>44743</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>VLOOKUP(B16,NhanVien!$A$2:$F$102,6,)</f>
         <v>10</v>
@@ -6053,7 +8421,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16">
         <f>VLOOKUP(D16&amp;F16,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6062,11 +8430,18 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="I16" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>VLOOKUP(B17,NhanVien!$A$2:$F$102,6,)</f>
         <v>11</v>
@@ -6079,7 +8454,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17">
         <f>VLOOKUP(D17&amp;F17,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6088,11 +8463,18 @@
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="K17">
+      <c r="I17" s="6">
+        <v>43466</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>VLOOKUP(B18,NhanVien!$A$2:$F$102,6,)</f>
         <v>12</v>
@@ -6105,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18">
         <f>VLOOKUP(D18&amp;F18,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6114,11 +8496,18 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="K18">
+      <c r="I18" s="6">
+        <v>43466</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>VLOOKUP(B19,NhanVien!$A$2:$F$102,6,)</f>
         <v>13</v>
@@ -6131,7 +8520,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19">
         <f>VLOOKUP(D19&amp;F19,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6140,11 +8529,18 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="I19" s="5">
+        <v>45200</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>VLOOKUP(B20,NhanVien!$A$2:$F$102,6,)</f>
         <v>14</v>
@@ -6157,7 +8553,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <f>VLOOKUP(D20&amp;F20,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6166,11 +8562,18 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="K20">
+      <c r="I20" s="5">
+        <v>45200</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>VLOOKUP(B21,NhanVien!$A$2:$F$102,6,)</f>
         <v>22</v>
@@ -6183,7 +8586,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21">
         <f>VLOOKUP(D21&amp;F21,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6195,11 +8598,18 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="I21" s="5">
+        <v>45139</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>VLOOKUP(B22,NhanVien!$A$2:$F$102,6,)</f>
         <v>23</v>
@@ -6212,7 +8622,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22">
         <f>VLOOKUP(D22&amp;F22,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6224,11 +8634,18 @@
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="K22">
+      <c r="I22" s="5">
+        <v>45108</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>VLOOKUP(B23,NhanVien!$A$2:$F$102,6,)</f>
         <v>24</v>
@@ -6241,7 +8658,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23">
         <f>VLOOKUP(D23&amp;F23,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6250,11 +8667,18 @@
       <c r="F23">
         <v>6</v>
       </c>
-      <c r="K23">
+      <c r="I23" s="6">
+        <v>45627</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>VLOOKUP(B24,NhanVien!$A$2:$F$102,6,)</f>
         <v>25</v>
@@ -6267,7 +8691,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24">
         <f>VLOOKUP(D24&amp;F24,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6276,11 +8700,18 @@
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="K24">
+      <c r="I24" s="5">
+        <v>45231</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>VLOOKUP(B25,NhanVien!$A$2:$F$102,6,)</f>
         <v>26</v>
@@ -6293,7 +8724,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25">
         <f>VLOOKUP(D25&amp;F25,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6302,11 +8733,18 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="K25">
+      <c r="I25" s="5">
+        <v>45139</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>VLOOKUP(B26,NhanVien!$A$2:$F$102,6,)</f>
         <v>27</v>
@@ -6319,7 +8757,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26">
         <f>VLOOKUP(D26&amp;F26,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6331,11 +8769,18 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="I26" s="5">
+        <v>45139</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>VLOOKUP(B27,NhanVien!$A$2:$F$102,6,)</f>
         <v>28</v>
@@ -6348,7 +8793,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27">
         <f>VLOOKUP(D27&amp;F27,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6360,11 +8805,18 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="K27">
+      <c r="I27" s="5">
+        <v>45108</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>VLOOKUP(B28,NhanVien!$A$2:$F$102,6,)</f>
         <v>29</v>
@@ -6377,7 +8829,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28">
         <f>VLOOKUP(D28&amp;F28,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6386,11 +8838,18 @@
       <c r="F28">
         <v>5</v>
       </c>
-      <c r="K28">
+      <c r="I28" s="5">
+        <v>44986</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-01T00:00:00+07:00</v>
+      </c>
+      <c r="M28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>VLOOKUP(B29,NhanVien!$A$2:$F$102,6,)</f>
         <v>30</v>
@@ -6403,7 +8862,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29">
         <f>VLOOKUP(D29&amp;F29,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6412,11 +8871,18 @@
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="K29">
+      <c r="I29" s="5">
+        <v>44896</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>VLOOKUP(B30,NhanVien!$A$2:$F$102,6,)</f>
         <v>31</v>
@@ -6429,7 +8895,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <f>VLOOKUP(D30&amp;F30,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6438,11 +8904,18 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="I30" s="5">
+        <v>44805</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-09-01T00:00:00+07:00</v>
+      </c>
+      <c r="M30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>VLOOKUP(B31,NhanVien!$A$2:$F$102,6,)</f>
         <v>32</v>
@@ -6455,7 +8928,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31">
         <f>VLOOKUP(D31&amp;F31,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6464,11 +8937,18 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="K31">
+      <c r="I31" s="5">
+        <v>45231</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>VLOOKUP(B32,NhanVien!$A$2:$F$102,6,)</f>
         <v>33</v>
@@ -6481,7 +8961,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32">
         <f>VLOOKUP(D32&amp;F32,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6490,11 +8970,18 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="K32">
+      <c r="I32" s="5">
+        <v>45231</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>VLOOKUP(B33,NhanVien!$A$2:$F$102,6,)</f>
         <v>34</v>
@@ -6507,7 +8994,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33">
         <f>VLOOKUP(D33&amp;F33,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6516,11 +9003,18 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="K33">
+      <c r="I33" s="5">
+        <v>45200</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>VLOOKUP(B34,NhanVien!$A$2:$F$102,6,)</f>
         <v>35</v>
@@ -6533,7 +9027,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34">
         <f>VLOOKUP(D34&amp;F34,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6542,11 +9036,18 @@
       <c r="F34">
         <v>6</v>
       </c>
-      <c r="K34">
+      <c r="I34" s="6">
+        <v>45505</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>VLOOKUP(B35,NhanVien!$A$2:$F$102,6,)</f>
         <v>36</v>
@@ -6559,7 +9060,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35">
         <f>VLOOKUP(D35&amp;F35,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6571,11 +9072,18 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="K35">
+      <c r="I35" s="5">
+        <v>44896</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>VLOOKUP(B36,NhanVien!$A$2:$F$102,6,)</f>
         <v>37</v>
@@ -6588,7 +9096,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36">
         <f>VLOOKUP(D36&amp;F36,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6600,11 +9108,18 @@
       <c r="G36">
         <v>2</v>
       </c>
-      <c r="K36">
+      <c r="I36" s="6">
+        <v>45505</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>VLOOKUP(B37,NhanVien!$A$2:$F$102,6,)</f>
         <v>38</v>
@@ -6617,7 +9132,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37">
         <f>VLOOKUP(D37&amp;F37,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6629,11 +9144,18 @@
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="K37">
+      <c r="I37" s="5">
+        <v>45139</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>VLOOKUP(B38,NhanVien!$A$2:$F$102,6,)</f>
         <v>40</v>
@@ -6646,7 +9168,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38">
         <f>VLOOKUP(D38&amp;F38,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6655,11 +9177,18 @@
       <c r="F38">
         <v>6</v>
       </c>
-      <c r="K38">
+      <c r="I38" s="5">
+        <v>44835</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>VLOOKUP(B39,NhanVien!$A$2:$F$102,6,)</f>
         <v>41</v>
@@ -6672,7 +9201,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39">
         <f>VLOOKUP(D39&amp;F39,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6681,11 +9210,18 @@
       <c r="F39">
         <v>3</v>
       </c>
-      <c r="K39">
+      <c r="I39" s="5">
+        <v>44805</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-09-01T00:00:00+07:00</v>
+      </c>
+      <c r="M39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>VLOOKUP(B40,NhanVien!$A$2:$F$102,6,)</f>
         <v>42</v>
@@ -6698,7 +9234,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40">
         <f>VLOOKUP(D40&amp;F40,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6707,11 +9243,18 @@
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="K40">
+      <c r="I40" s="5">
+        <v>44805</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-09-01T00:00:00+07:00</v>
+      </c>
+      <c r="M40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>VLOOKUP(B41,NhanVien!$A$2:$F$102,6,)</f>
         <v>43</v>
@@ -6724,7 +9267,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41">
         <f>VLOOKUP(D41&amp;F41,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6733,11 +9276,18 @@
       <c r="F41">
         <v>3</v>
       </c>
-      <c r="K41">
+      <c r="I41" s="5">
+        <v>44835</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-10-01T00:00:00+07:00</v>
+      </c>
+      <c r="M41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>VLOOKUP(B42,NhanVien!$A$2:$F$102,6,)</f>
         <v>44</v>
@@ -6750,7 +9300,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E42">
         <f>VLOOKUP(D42&amp;F42,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6759,11 +9309,18 @@
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="K42">
+      <c r="I42" s="6">
+        <v>45627</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>VLOOKUP(B43,NhanVien!$A$2:$F$102,6,)</f>
         <v>39</v>
@@ -6776,7 +9333,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43">
         <f>VLOOKUP(D43&amp;F43,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6785,11 +9342,18 @@
       <c r="F43">
         <v>7</v>
       </c>
-      <c r="K43">
+      <c r="I43" s="6">
+        <v>45505</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>VLOOKUP(B44,NhanVien!$A$2:$F$102,6,)</f>
         <v>45</v>
@@ -6802,7 +9366,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44">
         <f>VLOOKUP(D44&amp;F44,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6811,11 +9375,18 @@
       <c r="F44">
         <v>3</v>
       </c>
-      <c r="K44">
+      <c r="I44" s="5">
+        <v>45231</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>VLOOKUP(B45,NhanVien!$A$2:$F$102,6,)</f>
         <v>46</v>
@@ -6828,7 +9399,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E45">
         <f>VLOOKUP(D45&amp;F45,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6840,11 +9411,18 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="K45">
+      <c r="I45" s="6">
+        <v>45505</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>VLOOKUP(B46,NhanVien!$A$2:$F$102,6,)</f>
         <v>47</v>
@@ -6857,7 +9435,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46">
         <f>VLOOKUP(D46&amp;F46,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6869,11 +9447,18 @@
       <c r="G46">
         <v>2</v>
       </c>
-      <c r="K46">
+      <c r="I46" s="5">
+        <v>44986</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-01T00:00:00+07:00</v>
+      </c>
+      <c r="M46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>VLOOKUP(B47,NhanVien!$A$2:$F$102,6,)</f>
         <v>48</v>
@@ -6886,7 +9471,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47">
         <f>VLOOKUP(D47&amp;F47,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6898,11 +9483,18 @@
       <c r="H47">
         <v>2</v>
       </c>
-      <c r="K47">
+      <c r="I47" s="5">
+        <v>45231</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>VLOOKUP(B48,NhanVien!$A$2:$F$102,6,)</f>
         <v>49</v>
@@ -6915,7 +9507,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E48">
         <f>VLOOKUP(D48&amp;F48,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6927,11 +9519,18 @@
       <c r="H48">
         <v>3</v>
       </c>
-      <c r="K48">
+      <c r="I48" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>VLOOKUP(B49,NhanVien!$A$2:$F$102,6,)</f>
         <v>50</v>
@@ -6944,7 +9543,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49">
         <f>VLOOKUP(D49&amp;F49,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6956,11 +9555,18 @@
       <c r="H49">
         <v>2</v>
       </c>
-      <c r="K49">
+      <c r="I49" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>VLOOKUP(B50,NhanVien!$A$2:$F$102,6,)</f>
         <v>51</v>
@@ -6973,7 +9579,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50">
         <f>VLOOKUP(D50&amp;F50,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -6985,11 +9591,18 @@
       <c r="H50">
         <v>3</v>
       </c>
-      <c r="K50">
+      <c r="I50" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>VLOOKUP(B51,NhanVien!$A$2:$F$102,6,)</f>
         <v>52</v>
@@ -7002,7 +9615,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51">
         <f>VLOOKUP(D51&amp;F51,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7014,11 +9627,18 @@
       <c r="H51">
         <v>3</v>
       </c>
-      <c r="K51">
+      <c r="I51" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>VLOOKUP(B52,NhanVien!$A$2:$F$102,6,)</f>
         <v>53</v>
@@ -7031,7 +9651,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52">
         <f>VLOOKUP(D52&amp;F52,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7040,11 +9660,18 @@
       <c r="F52">
         <v>3</v>
       </c>
-      <c r="K52">
+      <c r="I52" s="5">
+        <v>44805</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-09-01T00:00:00+07:00</v>
+      </c>
+      <c r="M52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>VLOOKUP(B53,NhanVien!$A$2:$F$102,6,)</f>
         <v>54</v>
@@ -7057,7 +9684,7 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53">
         <f>VLOOKUP(D53&amp;F53,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7066,11 +9693,18 @@
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="K53">
+      <c r="I53" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>VLOOKUP(B54,NhanVien!$A$2:$F$102,6,)</f>
         <v>55</v>
@@ -7083,7 +9717,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54">
         <f>VLOOKUP(D54&amp;F54,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7092,11 +9726,18 @@
       <c r="F54">
         <v>4</v>
       </c>
-      <c r="K54">
+      <c r="I54" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>VLOOKUP(B55,NhanVien!$A$2:$F$102,6,)</f>
         <v>56</v>
@@ -7109,7 +9750,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55">
         <f>VLOOKUP(D55&amp;F55,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7121,11 +9762,18 @@
       <c r="H55">
         <v>3</v>
       </c>
-      <c r="K55">
+      <c r="I55" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>VLOOKUP(B56,NhanVien!$A$2:$F$102,6,)</f>
         <v>57</v>
@@ -7138,7 +9786,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56">
         <f>VLOOKUP(D56&amp;F56,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7147,11 +9795,18 @@
       <c r="F56">
         <v>3</v>
       </c>
-      <c r="K56">
+      <c r="I56" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>VLOOKUP(B57,NhanVien!$A$2:$F$102,6,)</f>
         <v>58</v>
@@ -7164,7 +9819,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E57">
         <f>VLOOKUP(D57&amp;F57,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7173,11 +9828,18 @@
       <c r="F57">
         <v>6</v>
       </c>
-      <c r="K57">
+      <c r="I57" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>VLOOKUP(B58,NhanVien!$A$2:$F$102,6,)</f>
         <v>59</v>
@@ -7190,7 +9852,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58">
         <f>VLOOKUP(D58&amp;F58,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7199,11 +9861,18 @@
       <c r="F58">
         <v>5</v>
       </c>
-      <c r="K58">
+      <c r="I58" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>VLOOKUP(B59,NhanVien!$A$2:$F$102,6,)</f>
         <v>60</v>
@@ -7216,7 +9885,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59">
         <f>VLOOKUP(D59&amp;F59,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7225,11 +9894,18 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="K59">
+      <c r="I59" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>VLOOKUP(B60,NhanVien!$A$2:$F$102,6,)</f>
         <v>61</v>
@@ -7242,7 +9918,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E60">
         <f>VLOOKUP(D60&amp;F60,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7251,11 +9927,18 @@
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="K60">
+      <c r="I60" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>VLOOKUP(B61,NhanVien!$A$2:$F$102,6,)</f>
         <v>62</v>
@@ -7268,7 +9951,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E61">
         <f>VLOOKUP(D61&amp;F61,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7277,11 +9960,18 @@
       <c r="F61">
         <v>3</v>
       </c>
-      <c r="K61">
+      <c r="I61" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>VLOOKUP(B62,NhanVien!$A$2:$F$102,6,)</f>
         <v>63</v>
@@ -7294,7 +9984,7 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E62">
         <f>VLOOKUP(D62&amp;F62,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7303,11 +9993,18 @@
       <c r="F62">
         <v>3</v>
       </c>
-      <c r="K62">
+      <c r="I62" s="7">
+        <v>45292</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>VLOOKUP(B63,NhanVien!$A$2:$F$102,6,)</f>
         <v>64</v>
@@ -7320,7 +10017,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63">
         <f>VLOOKUP(D63&amp;F63,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7329,11 +10026,18 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="K63">
+      <c r="I63" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>VLOOKUP(B64,NhanVien!$A$2:$F$102,6,)</f>
         <v>65</v>
@@ -7346,7 +10050,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E64">
         <f>VLOOKUP(D64&amp;F64,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7355,11 +10059,18 @@
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="K64">
+      <c r="I64" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>VLOOKUP(B65,NhanVien!$A$2:$F$102,6,)</f>
         <v>66</v>
@@ -7372,7 +10083,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65">
         <f>VLOOKUP(D65&amp;F65,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7384,11 +10095,18 @@
       <c r="H65">
         <v>2</v>
       </c>
-      <c r="K65">
+      <c r="I65" s="5">
+        <v>45261</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>VLOOKUP(B66,NhanVien!$A$2:$F$102,6,)</f>
         <v>67</v>
@@ -7401,7 +10119,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66">
         <f>VLOOKUP(D66&amp;F66,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7410,11 +10128,18 @@
       <c r="F66">
         <v>3</v>
       </c>
-      <c r="K66">
+      <c r="I66" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>VLOOKUP(B67,NhanVien!$A$2:$F$102,6,)</f>
         <v>68</v>
@@ -7427,7 +10152,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67">
         <f>VLOOKUP(D67&amp;F67,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7436,11 +10161,18 @@
       <c r="F67">
         <v>3</v>
       </c>
-      <c r="K67">
+      <c r="I67" s="5">
+        <v>45383</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J102" si="1">TEXT(I67,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
+        <v>2024-04-01T00:00:00+07:00</v>
+      </c>
+      <c r="M67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>VLOOKUP(B68,NhanVien!$A$2:$F$102,6,)</f>
         <v>70</v>
@@ -7453,7 +10185,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68">
         <f>VLOOKUP(D68&amp;F68,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7465,11 +10197,18 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="K68">
+      <c r="I68" s="5">
+        <v>44866</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>2022-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>VLOOKUP(B69,NhanVien!$A$2:$F$102,6,)</f>
         <v>71</v>
@@ -7482,7 +10221,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69">
         <f>VLOOKUP(D69&amp;F69,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7494,11 +10233,18 @@
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="K69">
+      <c r="I69" s="5">
+        <v>45536</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-09-01T00:00:00+07:00</v>
+      </c>
+      <c r="M69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>VLOOKUP(B70,NhanVien!$A$2:$F$102,6,)</f>
         <v>72</v>
@@ -7511,7 +10257,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70">
         <f>VLOOKUP(D70&amp;F70,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7520,11 +10266,18 @@
       <c r="F70">
         <v>5</v>
       </c>
-      <c r="K70">
+      <c r="I70" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>VLOOKUP(B71,NhanVien!$A$2:$F$102,6,)</f>
         <v>73</v>
@@ -7537,7 +10290,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E71">
         <f>VLOOKUP(D71&amp;F71,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7546,11 +10299,18 @@
       <c r="F71">
         <v>5</v>
       </c>
-      <c r="K71">
+      <c r="I71" s="6">
+        <v>43466</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>VLOOKUP(B72,NhanVien!$A$2:$F$102,6,)</f>
         <v>74</v>
@@ -7563,7 +10323,7 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72">
         <f>VLOOKUP(D72&amp;F72,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7575,11 +10335,18 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="K72">
+      <c r="I72" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>VLOOKUP(B73,NhanVien!$A$2:$F$102,6,)</f>
         <v>75</v>
@@ -7592,7 +10359,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73">
         <f>VLOOKUP(D73&amp;F73,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7604,11 +10371,18 @@
       <c r="H73">
         <v>3</v>
       </c>
-      <c r="K73">
+      <c r="I73" s="5">
+        <v>40664</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-05-01T00:00:00+07:00</v>
+      </c>
+      <c r="M73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>VLOOKUP(B74,NhanVien!$A$2:$F$102,6,)</f>
         <v>76</v>
@@ -7621,7 +10395,7 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74">
         <f>VLOOKUP(D74&amp;F74,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7633,11 +10407,18 @@
       <c r="H74">
         <v>3</v>
       </c>
-      <c r="K74">
+      <c r="I74" s="5">
+        <v>41974</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>2014-12-01T00:00:00+07:00</v>
+      </c>
+      <c r="M74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>VLOOKUP(B75,NhanVien!$A$2:$F$102,6,)</f>
         <v>77</v>
@@ -7650,7 +10431,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75">
         <f>VLOOKUP(D75&amp;F75,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7662,11 +10443,18 @@
       <c r="H75">
         <v>3</v>
       </c>
-      <c r="K75">
+      <c r="I75" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>VLOOKUP(B76,NhanVien!$A$2:$F$102,6,)</f>
         <v>78</v>
@@ -7679,7 +10467,7 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E76">
         <f>VLOOKUP(D76&amp;F76,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7691,11 +10479,18 @@
       <c r="H76">
         <v>3</v>
       </c>
-      <c r="K76">
+      <c r="I76" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>VLOOKUP(B77,NhanVien!$A$2:$F$102,6,)</f>
         <v>79</v>
@@ -7708,7 +10503,7 @@
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77">
         <f>VLOOKUP(D77&amp;F77,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7717,11 +10512,18 @@
       <c r="F77">
         <v>3</v>
       </c>
-      <c r="K77">
+      <c r="I77" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>VLOOKUP(B78,NhanVien!$A$2:$F$102,6,)</f>
         <v>80</v>
@@ -7734,7 +10536,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78">
         <f>VLOOKUP(D78&amp;F78,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7743,11 +10545,18 @@
       <c r="F78">
         <v>3</v>
       </c>
-      <c r="K78">
+      <c r="I78" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>VLOOKUP(B79,NhanVien!$A$2:$F$102,6,)</f>
         <v>81</v>
@@ -7760,7 +10569,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79">
         <f>VLOOKUP(D79&amp;F79,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7769,11 +10578,18 @@
       <c r="F79">
         <v>3</v>
       </c>
-      <c r="K79">
+      <c r="I79" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>VLOOKUP(B80,NhanVien!$A$2:$F$102,6,)</f>
         <v>82</v>
@@ -7786,7 +10602,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80">
         <f>VLOOKUP(D80&amp;F80,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7795,11 +10611,18 @@
       <c r="F80">
         <v>3</v>
       </c>
-      <c r="K80">
+      <c r="I80" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>VLOOKUP(B81,NhanVien!$A$2:$F$102,6,)</f>
         <v>83</v>
@@ -7812,7 +10635,7 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81">
         <f>VLOOKUP(D81&amp;F81,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7821,11 +10644,18 @@
       <c r="F81">
         <v>3</v>
       </c>
-      <c r="K81">
+      <c r="I81" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>VLOOKUP(B82,NhanVien!$A$2:$F$102,6,)</f>
         <v>84</v>
@@ -7838,7 +10668,7 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82">
         <f>VLOOKUP(D82&amp;F82,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7847,11 +10677,18 @@
       <c r="F82">
         <v>2</v>
       </c>
-      <c r="K82">
+      <c r="I82" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>VLOOKUP(B83,NhanVien!$A$2:$F$102,6,)</f>
         <v>85</v>
@@ -7864,7 +10701,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E83">
         <f>VLOOKUP(D83&amp;F83,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7873,11 +10710,18 @@
       <c r="F83">
         <v>6</v>
       </c>
-      <c r="K83">
+      <c r="I83" s="7">
+        <v>42856</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-05-01T00:00:00+07:00</v>
+      </c>
+      <c r="M83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>VLOOKUP(B84,NhanVien!$A$2:$F$102,6,)</f>
         <v>86</v>
@@ -7890,7 +10734,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E84">
         <f>VLOOKUP(D84&amp;F84,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7899,11 +10743,18 @@
       <c r="F84">
         <v>6</v>
       </c>
-      <c r="K84">
+      <c r="I84" s="7">
+        <v>42826</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-04-01T00:00:00+07:00</v>
+      </c>
+      <c r="M84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>VLOOKUP(B85,NhanVien!$A$2:$F$102,6,)</f>
         <v>87</v>
@@ -7916,7 +10767,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E85">
         <f>VLOOKUP(D85&amp;F85,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7928,11 +10779,18 @@
       <c r="H85">
         <v>2</v>
       </c>
-      <c r="K85">
+      <c r="I85" s="7">
+        <v>42826</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-04-01T00:00:00+07:00</v>
+      </c>
+      <c r="M85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>VLOOKUP(B86,NhanVien!$A$2:$F$102,6,)</f>
         <v>88</v>
@@ -7945,7 +10803,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E86">
         <f>VLOOKUP(D86&amp;F86,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7954,11 +10812,18 @@
       <c r="F86">
         <v>6</v>
       </c>
-      <c r="K86">
+      <c r="I86" s="7">
+        <v>42826</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-04-01T00:00:00+07:00</v>
+      </c>
+      <c r="M86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>VLOOKUP(B87,NhanVien!$A$2:$F$102,6,)</f>
         <v>89</v>
@@ -7971,7 +10836,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E87">
         <f>VLOOKUP(D87&amp;F87,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -7980,11 +10845,18 @@
       <c r="F87">
         <v>4</v>
       </c>
-      <c r="K87">
+      <c r="I87" s="7">
+        <v>42826</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-04-01T00:00:00+07:00</v>
+      </c>
+      <c r="M87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>VLOOKUP(B88,NhanVien!$A$2:$F$102,6,)</f>
         <v>90</v>
@@ -7997,7 +10869,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E88">
         <f>VLOOKUP(D88&amp;F88,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8006,11 +10878,18 @@
       <c r="F88">
         <v>6</v>
       </c>
-      <c r="K88">
+      <c r="I88" s="7">
+        <v>42856</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-05-01T00:00:00+07:00</v>
+      </c>
+      <c r="M88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>VLOOKUP(B89,NhanVien!$A$2:$F$102,6,)</f>
         <v>91</v>
@@ -8023,7 +10902,7 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E89">
         <f>VLOOKUP(D89&amp;F89,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8032,11 +10911,18 @@
       <c r="F89">
         <v>4</v>
       </c>
-      <c r="K89">
+      <c r="I89" s="7">
+        <v>45292</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>VLOOKUP(B90,NhanVien!$A$2:$F$102,6,)</f>
         <v>92</v>
@@ -8049,7 +10935,7 @@
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90">
         <f>VLOOKUP(D90&amp;F90,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8058,11 +10944,18 @@
       <c r="F90">
         <v>2</v>
       </c>
-      <c r="K90">
+      <c r="I90" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>VLOOKUP(B91,NhanVien!$A$2:$F$102,6,)</f>
         <v>93</v>
@@ -8075,7 +10968,7 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E91">
         <f>VLOOKUP(D91&amp;F91,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8084,11 +10977,18 @@
       <c r="F91">
         <v>3</v>
       </c>
-      <c r="K91">
+      <c r="I91" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>VLOOKUP(B92,NhanVien!$A$2:$F$102,6,)</f>
         <v>94</v>
@@ -8101,7 +11001,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E92">
         <f>VLOOKUP(D92&amp;F92,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8110,11 +11010,18 @@
       <c r="F92">
         <v>3</v>
       </c>
-      <c r="K92">
+      <c r="I92" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>VLOOKUP(B93,NhanVien!$A$2:$F$102,6,)</f>
         <v>95</v>
@@ -8127,7 +11034,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E93">
         <f>VLOOKUP(D93&amp;F93,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8136,11 +11043,18 @@
       <c r="F93">
         <v>3</v>
       </c>
-      <c r="K93">
+      <c r="I93" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>VLOOKUP(B94,NhanVien!$A$2:$F$102,6,)</f>
         <v>96</v>
@@ -8153,7 +11067,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E94">
         <f>VLOOKUP(D94&amp;F94,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8162,11 +11076,18 @@
       <c r="F94">
         <v>2</v>
       </c>
-      <c r="K94">
+      <c r="I94" s="5">
+        <v>45658</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>2025-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>VLOOKUP(B95,NhanVien!$A$2:$F$102,6,)</f>
         <v>97</v>
@@ -8179,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E95">
         <f>VLOOKUP(D95&amp;F95,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8188,11 +11109,18 @@
       <c r="F95">
         <v>2</v>
       </c>
-      <c r="K95">
+      <c r="I95" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>VLOOKUP(B96,NhanVien!$A$2:$F$102,6,)</f>
         <v>98</v>
@@ -8205,7 +11133,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E96">
         <f>VLOOKUP(D96&amp;F96,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8214,11 +11142,18 @@
       <c r="F96">
         <v>2</v>
       </c>
-      <c r="K96">
+      <c r="I96" s="5">
+        <v>45292</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="M96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>VLOOKUP(B97,NhanVien!$A$2:$F$102,6,)</f>
         <v>99</v>
@@ -8231,7 +11166,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E97">
         <f>VLOOKUP(D97&amp;F97,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8240,11 +11175,18 @@
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="K97">
+      <c r="I97" s="5">
+        <v>45231</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-11-01T00:00:00+07:00</v>
+      </c>
+      <c r="M97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>VLOOKUP(B98,NhanVien!$A$2:$F$102,6,)</f>
         <v>15</v>
@@ -8257,7 +11199,7 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E98">
         <f>VLOOKUP(D98&amp;F98,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8266,11 +11208,18 @@
       <c r="F98">
         <v>3</v>
       </c>
-      <c r="K98">
+      <c r="I98" s="5">
+        <v>44743</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>2022-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>VLOOKUP(B99,NhanVien!$A$2:$F$102,6,)</f>
         <v>16</v>
@@ -8283,7 +11232,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E99">
         <f>VLOOKUP(D99&amp;F99,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8292,11 +11241,18 @@
       <c r="F99">
         <v>2</v>
       </c>
-      <c r="K99">
+      <c r="I99" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-08-01T00:00:00+07:00</v>
+      </c>
+      <c r="M99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>VLOOKUP(B100,NhanVien!$A$2:$F$102,6,)</f>
         <v>69</v>
@@ -8309,7 +11265,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E100">
         <f>VLOOKUP(D100&amp;F100,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8318,11 +11274,18 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="K100">
+      <c r="I100" s="5">
+        <v>44743</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>2022-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>VLOOKUP(B101,NhanVien!$A$2:$F$102,6,)</f>
         <v>100</v>
@@ -8335,7 +11298,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E101">
         <f>VLOOKUP(D101&amp;F101,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8344,11 +11307,18 @@
       <c r="F101">
         <v>3</v>
       </c>
-      <c r="K101">
+      <c r="I101" s="5">
+        <v>44743</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>2022-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>VLOOKUP(B102,NhanVien!$A$2:$F$102,6,)</f>
         <v>101</v>
@@ -8361,7 +11331,7 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E102">
         <f>VLOOKUP(D102&amp;F102,BacNgachLuong!$A$2:$G$66,7,)</f>
@@ -8370,11 +11340,19 @@
       <c r="F102">
         <v>3</v>
       </c>
-      <c r="K102">
+      <c r="I102" s="5">
+        <v>44743</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>2022-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="M102">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/prisma/data/data.xlsx
+++ b/prisma/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E7A5F5-0E21-4CFE-863C-AE342D1CC798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0975E15-0C7C-45CB-A979-07CEC03C4CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="624" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phong" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="NgachLuong" sheetId="7" r:id="rId7"/>
     <sheet name="BacNgachLuong" sheetId="8" r:id="rId8"/>
     <sheet name="ThongTinBHXH" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
-    <sheet name="HeSoLuongMax" sheetId="10" r:id="rId11"/>
+    <sheet name="BacLuongMax" sheetId="10" r:id="rId10"/>
+    <sheet name="LichSuBHXH" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="259">
   <si>
     <t>ten</t>
   </si>
@@ -806,116 +807,50 @@
     <t>2024-07-01T00:00:00+07:00</t>
   </si>
   <si>
-    <t>2025-01-04T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2020-05-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-10-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2022-01-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2021-09-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-01-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2022-08-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-06-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2023-07-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2025-01-05T00:00:00+07:00</t>
-  </si>
-  <si>
     <t>2022-07-01T00:00:00+07:00</t>
   </si>
   <si>
-    <t>2019-01-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2023-10-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2023-08-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-12-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2023-11-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2023-03-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2022-12-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2022-09-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-08-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2022-10-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2025-01-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2021-12-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2023-12-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-04-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2022-11-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2024-09-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2011-05-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2014-12-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2017-05-01T00:00:00+07:00</t>
-  </si>
-  <si>
-    <t>2017-04-01T00:00:00+07:00</t>
-  </si>
-  <si>
     <t>Phó trưởng phòng, Phó Giám đốc Chi nhánh trực thuộc Công ty hoặc tương đương</t>
   </si>
   <si>
-    <t>isMax</t>
-  </si>
-  <si>
     <t>bacMax</t>
   </si>
   <si>
     <t>isMaxBac</t>
+  </si>
+  <si>
+    <t>thongTinQD</t>
+  </si>
+  <si>
+    <t>Quyết định số 106/20/QĐ-S3-TCHC ngày 01/11/2020</t>
+  </si>
+  <si>
+    <t>bacLuong</t>
+  </si>
+  <si>
+    <t>bacLuongId</t>
+  </si>
+  <si>
+    <t>QL.023</t>
+  </si>
+  <si>
+    <t>mucLuongToiThieuId</t>
+  </si>
+  <si>
+    <t>Nghị định số 90/2019/NĐ-CP ngày 15 tháng 11 năm 2019 của Chính phủ</t>
+  </si>
+  <si>
+    <t>Nghị định số: 38/2022/NĐ-CP ngày 12 tháng 6 năm 2022 của Chính phủ</t>
+  </si>
+  <si>
+    <t>2020-01-01T00:00:00+07:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +919,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1027,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +987,19 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1499,1858 +1455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FC3629-DC82-48E4-A265-AB5A90CC8EFF}">
-  <dimension ref="A1:H102"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>262</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>263</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>264</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>21</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>263</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>23</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>265</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>266</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>260</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>22</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>19</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>37</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>267</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>37</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>36</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>268</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>36</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s">
-        <v>264</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>43</v>
-      </c>
-      <c r="E54" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>36</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>48</v>
-      </c>
-      <c r="E56" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>51</v>
-      </c>
-      <c r="E57" t="s">
-        <v>268</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>50</v>
-      </c>
-      <c r="E58" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>49</v>
-      </c>
-      <c r="E59" t="s">
-        <v>268</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>41</v>
-      </c>
-      <c r="E60" t="s">
-        <v>268</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>42</v>
-      </c>
-      <c r="E61" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s">
-        <v>251</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>40</v>
-      </c>
-      <c r="E63" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>40</v>
-      </c>
-      <c r="E64" t="s">
-        <v>251</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>49</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>67</v>
-      </c>
-      <c r="B66">
-        <v>48</v>
-      </c>
-      <c r="E66" t="s">
-        <v>268</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>48</v>
-      </c>
-      <c r="E67" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>70</v>
-      </c>
-      <c r="B68">
-        <v>21</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>271</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>71</v>
-      </c>
-      <c r="B69">
-        <v>21</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>272</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>72</v>
-      </c>
-      <c r="B70">
-        <v>29</v>
-      </c>
-      <c r="E70" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>62</v>
-      </c>
-      <c r="E71" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>74</v>
-      </c>
-      <c r="B72">
-        <v>37</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>267</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>75</v>
-      </c>
-      <c r="B73">
-        <v>36</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>273</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>76</v>
-      </c>
-      <c r="B74">
-        <v>36</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>274</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>77</v>
-      </c>
-      <c r="B75">
-        <v>37</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>251</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>78</v>
-      </c>
-      <c r="B76">
-        <v>43</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>79</v>
-      </c>
-      <c r="B77">
-        <v>42</v>
-      </c>
-      <c r="E77" t="s">
-        <v>251</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>80</v>
-      </c>
-      <c r="B78">
-        <v>42</v>
-      </c>
-      <c r="E78" t="s">
-        <v>251</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>42</v>
-      </c>
-      <c r="E79" t="s">
-        <v>267</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>42</v>
-      </c>
-      <c r="E80" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>83</v>
-      </c>
-      <c r="B81">
-        <v>42</v>
-      </c>
-      <c r="E81" t="s">
-        <v>251</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>84</v>
-      </c>
-      <c r="B82">
-        <v>41</v>
-      </c>
-      <c r="E82" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>51</v>
-      </c>
-      <c r="E83" t="s">
-        <v>275</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <v>51</v>
-      </c>
-      <c r="E84" t="s">
-        <v>276</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>87</v>
-      </c>
-      <c r="B85">
-        <v>51</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>276</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>51</v>
-      </c>
-      <c r="E86" t="s">
-        <v>276</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>89</v>
-      </c>
-      <c r="B87">
-        <v>49</v>
-      </c>
-      <c r="E87" t="s">
-        <v>276</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>90</v>
-      </c>
-      <c r="B88">
-        <v>51</v>
-      </c>
-      <c r="E88" t="s">
-        <v>275</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>91</v>
-      </c>
-      <c r="B89">
-        <v>49</v>
-      </c>
-      <c r="E89" t="s">
-        <v>251</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>92</v>
-      </c>
-      <c r="B90">
-        <v>41</v>
-      </c>
-      <c r="E90" t="s">
-        <v>251</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>93</v>
-      </c>
-      <c r="B91">
-        <v>48</v>
-      </c>
-      <c r="E91" t="s">
-        <v>251</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>94</v>
-      </c>
-      <c r="B92">
-        <v>48</v>
-      </c>
-      <c r="E92" t="s">
-        <v>251</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>95</v>
-      </c>
-      <c r="B93">
-        <v>48</v>
-      </c>
-      <c r="E93" t="s">
-        <v>251</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>96</v>
-      </c>
-      <c r="B94">
-        <v>18</v>
-      </c>
-      <c r="E94" t="s">
-        <v>267</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>97</v>
-      </c>
-      <c r="B95">
-        <v>45</v>
-      </c>
-      <c r="E95" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>98</v>
-      </c>
-      <c r="B96">
-        <v>47</v>
-      </c>
-      <c r="E96" t="s">
-        <v>251</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>99</v>
-      </c>
-      <c r="B97">
-        <v>44</v>
-      </c>
-      <c r="E97" t="s">
-        <v>261</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>15</v>
-      </c>
-      <c r="B98">
-        <v>65</v>
-      </c>
-      <c r="E98" t="s">
-        <v>256</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>16</v>
-      </c>
-      <c r="B99">
-        <v>64</v>
-      </c>
-      <c r="E99" t="s">
-        <v>265</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>69</v>
-      </c>
-      <c r="B100">
-        <v>65</v>
-      </c>
-      <c r="E100" t="s">
-        <v>256</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>65</v>
-      </c>
-      <c r="E101" t="s">
-        <v>256</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>65</v>
-      </c>
-      <c r="E102" t="s">
-        <v>256</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7F0B42-9B7B-43A2-9C1A-D114426684BA}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +1476,7 @@
         <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>59</v>
@@ -3541,6 +1650,153 @@
       </c>
       <c r="C16">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F5767D-918A-4818-A2A6-C05D87621F9D}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="6" width="13.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FC3629-DC82-48E4-A265-AB5A90CC8EFF}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4410000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4160000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3920000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5850,34 +4106,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC63E2-331B-4700-A477-C12484943D97}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E1" activeCellId="3" sqref="A1:A1048576 B1:B1048576 D1:D1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5885,10 +4145,50 @@
         <v>4410000</v>
       </c>
       <c r="C2" s="1">
-        <v>45839</v>
-      </c>
-      <c r="D2" t="s">
+        <v>45474</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TEXT(C2,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
+        <v>2024-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="E2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4160000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44743</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">TEXT(C3,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
+        <v>2022-07-01T00:00:00+07:00</v>
+      </c>
+      <c r="E3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3920000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-01T00:00:00+07:00</v>
+      </c>
+      <c r="E4" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5936,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>175</v>
@@ -6209,7 +4509,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7879,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A848FCD-4BD6-4761-B1AB-862EBFEAB588}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="7" sqref="A1:A1048576 E1:E1048576 G1:G1048576 H1:H1048576 J1:J1048576 L1:L1048576 K1:K1048576 M1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7928,7 +6228,7 @@
         <v>244</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>240</v>
